--- a/L1U1_Teaching Guide for Prepare Mode.xlsx
+++ b/L1U1_Teaching Guide for Prepare Mode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Week-1" sheetId="3" r:id="rId1"/>
     <sheet name="Week-2" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -27,7 +27,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
           </rPr>
           <t>deepali.raikar:</t>
         </r>
@@ -35,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
           </rPr>
           <t xml:space="preserve">
 hello
@@ -48,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="211">
   <si>
     <t>Screen</t>
   </si>
@@ -4481,13 +4479,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4525,139 +4517,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -4665,21 +4541,29 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -4687,23 +4571,18 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
-      <charset val="134"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4712,13 +4591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4736,7 +4615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4752,194 +4631,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -5014,245 +4707,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5465,56 +4922,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="60% - Accent4" xfId="10" builtinId="44"/>
-    <cellStyle name="40% - Accent3" xfId="11" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="12" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="13" builtinId="35"/>
-    <cellStyle name="Title" xfId="14" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="15" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="16" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="17" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="18" builtinId="19"/>
-    <cellStyle name="Input" xfId="19" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="20" builtinId="40"/>
-    <cellStyle name="Good" xfId="21" builtinId="26"/>
-    <cellStyle name="Output" xfId="22" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="23" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="24" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="25" builtinId="24"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Bad" xfId="27" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="29" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="30" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="31" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="32" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="33" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="34" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="35" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="36" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="37" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="40" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="43" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="46" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="120">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -5527,11 +4938,1191 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5539,9 +6130,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00F79E98"/>
-      <color rgb="00FFCBFB"/>
-      <color rgb="00FFEFFE"/>
+      <color rgb="FFF79E98"/>
+      <color rgb="FFFFCBFB"/>
+      <color rgb="FFFFEFFE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5804,36 +6395,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="E1" sqref="E$1:E$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.5047619047619" style="56" customWidth="1"/>
-    <col min="2" max="2" width="6.5047619047619" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.3333333333333" style="8" customWidth="1"/>
-    <col min="4" max="4" width="6.5047619047619" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.3333333333333" style="8" customWidth="1"/>
-    <col min="6" max="6" width="34.5047619047619" style="57" customWidth="1"/>
-    <col min="7" max="7" width="43.1619047619048" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.5047619047619" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="57" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="69" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.16190476190476" style="55" customWidth="1"/>
-    <col min="11" max="16384" width="8.82857142857143" style="3"/>
+    <col min="10" max="10" width="9.140625" style="55" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="55" customFormat="1" ht="18" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" s="55" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
@@ -5865,7 +6455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="53.25" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" ht="53.25" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>9</v>
       </c>
@@ -5893,9 +6483,11 @@
       <c r="I2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="53"/>
-    </row>
-    <row r="3" ht="53.25" customHeight="1" spans="1:10">
+      <c r="J2" s="53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="53.25" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>18</v>
       </c>
@@ -5925,7 +6517,7 @@
       </c>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" ht="90" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" ht="90" customHeight="1">
       <c r="A4" s="63" t="s">
         <v>24</v>
       </c>
@@ -5953,7 +6545,7 @@
       </c>
       <c r="J4" s="70"/>
     </row>
-    <row r="5" ht="152.25" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="152.25" customHeight="1">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -5985,7 +6577,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" ht="135.75" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" ht="135.75" customHeight="1">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -6017,7 +6609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" ht="169.5" customHeight="1" spans="1:10">
+    <row r="7" spans="1:10" ht="169.5" customHeight="1">
       <c r="A7" s="39">
         <v>6</v>
       </c>
@@ -6049,7 +6641,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" ht="126.75" customHeight="1" spans="1:10">
+    <row r="8" spans="1:10" ht="126.75" customHeight="1">
       <c r="A8" s="63">
         <v>7</v>
       </c>
@@ -6079,7 +6671,7 @@
       </c>
       <c r="J8" s="70"/>
     </row>
-    <row r="9" ht="72.75" customHeight="1" spans="1:10">
+    <row r="9" spans="1:10" ht="72.75" customHeight="1">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -6109,7 +6701,7 @@
       </c>
       <c r="J9" s="51"/>
     </row>
-    <row r="10" ht="51" spans="1:10">
+    <row r="10" spans="1:10" ht="51">
       <c r="A10" s="39">
         <v>9</v>
       </c>
@@ -6141,7 +6733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" ht="171.75" customHeight="1" spans="1:10">
+    <row r="11" spans="1:10" ht="171.75" customHeight="1">
       <c r="A11" s="39">
         <v>10</v>
       </c>
@@ -6173,7 +6765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" ht="216.75" customHeight="1" spans="1:10">
+    <row r="12" spans="1:10" ht="216.75" customHeight="1">
       <c r="A12" s="63">
         <v>11</v>
       </c>
@@ -6203,7 +6795,7 @@
       </c>
       <c r="J12" s="70"/>
     </row>
-    <row r="13" ht="107.25" customHeight="1" spans="1:10">
+    <row r="13" spans="1:10" ht="107.25" customHeight="1">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -6235,7 +6827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" ht="208.5" customHeight="1" spans="1:10">
+    <row r="14" spans="1:10" ht="208.5" customHeight="1">
       <c r="A14" s="39">
         <v>13</v>
       </c>
@@ -6267,7 +6859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" ht="93" customHeight="1" spans="1:10">
+    <row r="15" spans="1:10" ht="93" customHeight="1">
       <c r="A15" s="39">
         <v>14</v>
       </c>
@@ -6299,7 +6891,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" ht="140.25" spans="1:10">
+    <row r="16" spans="1:10" ht="51">
       <c r="A16" s="39">
         <v>15</v>
       </c>
@@ -6329,7 +6921,7 @@
       </c>
       <c r="J16" s="53"/>
     </row>
-    <row r="17" ht="135" customHeight="1" spans="1:10">
+    <row r="17" spans="1:14" ht="135" customHeight="1">
       <c r="A17" s="39">
         <v>16</v>
       </c>
@@ -6359,7 +6951,7 @@
       </c>
       <c r="J17" s="53"/>
     </row>
-    <row r="18" ht="170.25" customHeight="1" spans="1:10">
+    <row r="18" spans="1:14" ht="170.25" customHeight="1">
       <c r="A18" s="63">
         <v>17</v>
       </c>
@@ -6391,7 +6983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" ht="144.75" customHeight="1" spans="1:10">
+    <row r="19" spans="1:14" ht="144.75" customHeight="1">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -6423,7 +7015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" ht="53.25" customHeight="1" spans="1:10">
+    <row r="20" spans="1:14" ht="53.25" customHeight="1">
       <c r="A20" s="39">
         <v>19</v>
       </c>
@@ -6453,7 +7045,7 @@
       </c>
       <c r="J20" s="53"/>
     </row>
-    <row r="21" ht="53.25" customHeight="1" spans="1:10">
+    <row r="21" spans="1:14" ht="53.25" customHeight="1">
       <c r="A21" s="39">
         <v>20</v>
       </c>
@@ -6483,7 +7075,7 @@
       </c>
       <c r="J21" s="53"/>
     </row>
-    <row r="22" ht="66.75" customHeight="1" spans="1:10">
+    <row r="22" spans="1:14" ht="66.75" customHeight="1">
       <c r="A22" s="39">
         <v>21</v>
       </c>
@@ -6513,7 +7105,7 @@
       </c>
       <c r="J22" s="53"/>
     </row>
-    <row r="23" ht="106.5" customHeight="1" spans="1:10">
+    <row r="23" spans="1:14" ht="106.5" customHeight="1">
       <c r="A23" s="63">
         <v>22</v>
       </c>
@@ -6543,7 +7135,7 @@
       </c>
       <c r="J23" s="70"/>
     </row>
-    <row r="24" ht="197.25" customHeight="1" spans="1:14">
+    <row r="24" spans="1:14" ht="197.25" customHeight="1">
       <c r="A24" s="35">
         <v>23</v>
       </c>
@@ -6577,7 +7169,7 @@
       <c r="M24" s="52"/>
       <c r="N24" s="52"/>
     </row>
-    <row r="25" ht="104.25" customHeight="1" spans="1:14">
+    <row r="25" spans="1:14" ht="104.25" customHeight="1">
       <c r="A25" s="39">
         <v>24</v>
       </c>
@@ -6611,7 +7203,7 @@
       <c r="M25" s="52"/>
       <c r="N25" s="52"/>
     </row>
-    <row r="26" ht="104.25" customHeight="1" spans="1:14">
+    <row r="26" spans="1:14" ht="104.25" customHeight="1">
       <c r="A26" s="39">
         <v>24</v>
       </c>
@@ -6645,7 +7237,7 @@
       <c r="M26" s="52"/>
       <c r="N26" s="52"/>
     </row>
-    <row r="27" s="4" customFormat="1" ht="67.5" customHeight="1" spans="1:14">
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="67.5" customHeight="1">
       <c r="A27" s="39">
         <v>25</v>
       </c>
@@ -6677,7 +7269,7 @@
       <c r="M27" s="52"/>
       <c r="N27" s="52"/>
     </row>
-    <row r="28" s="52" customFormat="1" spans="1:10">
+    <row r="28" spans="1:14" s="52" customFormat="1">
       <c r="A28" s="66"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -6686,7 +7278,7 @@
       <c r="F28" s="67"/>
       <c r="J28" s="72"/>
     </row>
-    <row r="29" s="52" customFormat="1" spans="1:10">
+    <row r="29" spans="1:14" s="52" customFormat="1">
       <c r="A29" s="66"/>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
@@ -6695,7 +7287,7 @@
       <c r="F29" s="67"/>
       <c r="J29" s="72"/>
     </row>
-    <row r="30" s="52" customFormat="1" spans="1:10">
+    <row r="30" spans="1:14" s="52" customFormat="1">
       <c r="A30" s="66"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
@@ -6704,7 +7296,7 @@
       <c r="F30" s="67"/>
       <c r="J30" s="72"/>
     </row>
-    <row r="31" s="52" customFormat="1" spans="1:10">
+    <row r="31" spans="1:14" s="52" customFormat="1">
       <c r="A31" s="66"/>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
@@ -6713,7 +7305,7 @@
       <c r="F31" s="67"/>
       <c r="J31" s="72"/>
     </row>
-    <row r="32" s="52" customFormat="1" spans="1:10">
+    <row r="32" spans="1:14" s="52" customFormat="1">
       <c r="A32" s="66"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -6722,7 +7314,7 @@
       <c r="F32" s="67"/>
       <c r="J32" s="72"/>
     </row>
-    <row r="33" s="52" customFormat="1" spans="1:10">
+    <row r="33" spans="1:10" s="52" customFormat="1">
       <c r="A33" s="66"/>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
@@ -6731,7 +7323,7 @@
       <c r="F33" s="67"/>
       <c r="J33" s="72"/>
     </row>
-    <row r="34" s="52" customFormat="1" spans="1:10">
+    <row r="34" spans="1:10" s="52" customFormat="1">
       <c r="A34" s="66"/>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
@@ -6740,7 +7332,7 @@
       <c r="F34" s="67"/>
       <c r="J34" s="72"/>
     </row>
-    <row r="35" s="52" customFormat="1" spans="1:10">
+    <row r="35" spans="1:10" s="52" customFormat="1">
       <c r="A35" s="66"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -6749,7 +7341,7 @@
       <c r="F35" s="67"/>
       <c r="J35" s="72"/>
     </row>
-    <row r="36" s="52" customFormat="1" spans="1:10">
+    <row r="36" spans="1:10" s="52" customFormat="1">
       <c r="A36" s="66"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
@@ -6758,7 +7350,7 @@
       <c r="F36" s="67"/>
       <c r="J36" s="72"/>
     </row>
-    <row r="37" s="52" customFormat="1" spans="1:10">
+    <row r="37" spans="1:10" s="52" customFormat="1">
       <c r="A37" s="66"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -6767,7 +7359,7 @@
       <c r="F37" s="67"/>
       <c r="J37" s="72"/>
     </row>
-    <row r="38" s="52" customFormat="1" spans="1:10">
+    <row r="38" spans="1:10" s="52" customFormat="1">
       <c r="A38" s="66"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -6776,7 +7368,7 @@
       <c r="F38" s="67"/>
       <c r="J38" s="72"/>
     </row>
-    <row r="39" s="52" customFormat="1" spans="1:10">
+    <row r="39" spans="1:10" s="52" customFormat="1">
       <c r="A39" s="66"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -6785,7 +7377,7 @@
       <c r="F39" s="67"/>
       <c r="J39" s="72"/>
     </row>
-    <row r="40" s="52" customFormat="1" spans="1:10">
+    <row r="40" spans="1:10" s="52" customFormat="1">
       <c r="A40" s="66"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -6794,7 +7386,7 @@
       <c r="F40" s="67"/>
       <c r="J40" s="72"/>
     </row>
-    <row r="41" s="52" customFormat="1" spans="1:10">
+    <row r="41" spans="1:10" s="52" customFormat="1">
       <c r="A41" s="66"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -6803,7 +7395,7 @@
       <c r="F41" s="67"/>
       <c r="J41" s="72"/>
     </row>
-    <row r="42" s="52" customFormat="1" spans="1:10">
+    <row r="42" spans="1:10" s="52" customFormat="1">
       <c r="A42" s="66"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -6812,7 +7404,7 @@
       <c r="F42" s="67"/>
       <c r="J42" s="72"/>
     </row>
-    <row r="43" s="52" customFormat="1" spans="1:10">
+    <row r="43" spans="1:10" s="52" customFormat="1">
       <c r="A43" s="66"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -6821,7 +7413,7 @@
       <c r="F43" s="67"/>
       <c r="J43" s="72"/>
     </row>
-    <row r="44" s="52" customFormat="1" spans="1:10">
+    <row r="44" spans="1:10" s="52" customFormat="1">
       <c r="A44" s="66"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -6830,7 +7422,7 @@
       <c r="F44" s="67"/>
       <c r="J44" s="72"/>
     </row>
-    <row r="45" s="52" customFormat="1" spans="1:10">
+    <row r="45" spans="1:10" s="52" customFormat="1">
       <c r="A45" s="66"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
@@ -6839,7 +7431,7 @@
       <c r="F45" s="67"/>
       <c r="J45" s="72"/>
     </row>
-    <row r="46" s="52" customFormat="1" spans="1:10">
+    <row r="46" spans="1:10" s="52" customFormat="1">
       <c r="A46" s="66"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -6848,7 +7440,7 @@
       <c r="F46" s="67"/>
       <c r="J46" s="72"/>
     </row>
-    <row r="47" s="52" customFormat="1" spans="1:10">
+    <row r="47" spans="1:10" s="52" customFormat="1">
       <c r="A47" s="66"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -6857,7 +7449,7 @@
       <c r="F47" s="67"/>
       <c r="J47" s="72"/>
     </row>
-    <row r="48" s="52" customFormat="1" spans="1:10">
+    <row r="48" spans="1:10" s="52" customFormat="1">
       <c r="A48" s="66"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -6866,7 +7458,7 @@
       <c r="F48" s="67"/>
       <c r="J48" s="72"/>
     </row>
-    <row r="49" s="52" customFormat="1" spans="1:10">
+    <row r="49" spans="1:10" s="52" customFormat="1">
       <c r="A49" s="66"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
@@ -6875,7 +7467,7 @@
       <c r="F49" s="67"/>
       <c r="J49" s="72"/>
     </row>
-    <row r="50" s="52" customFormat="1" spans="1:10">
+    <row r="50" spans="1:10" s="52" customFormat="1">
       <c r="A50" s="66"/>
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
@@ -6884,7 +7476,7 @@
       <c r="F50" s="67"/>
       <c r="J50" s="72"/>
     </row>
-    <row r="51" s="52" customFormat="1" spans="1:10">
+    <row r="51" spans="1:10" s="52" customFormat="1">
       <c r="A51" s="66"/>
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
@@ -6893,7 +7485,7 @@
       <c r="F51" s="67"/>
       <c r="J51" s="72"/>
     </row>
-    <row r="52" s="52" customFormat="1" spans="1:10">
+    <row r="52" spans="1:10" s="52" customFormat="1">
       <c r="A52" s="66"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -6902,7 +7494,7 @@
       <c r="F52" s="67"/>
       <c r="J52" s="72"/>
     </row>
-    <row r="53" s="52" customFormat="1" spans="1:10">
+    <row r="53" spans="1:10" s="52" customFormat="1">
       <c r="A53" s="66"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41"/>
@@ -6911,7 +7503,7 @@
       <c r="F53" s="67"/>
       <c r="J53" s="72"/>
     </row>
-    <row r="54" s="52" customFormat="1" spans="1:10">
+    <row r="54" spans="1:10" s="52" customFormat="1">
       <c r="A54" s="66"/>
       <c r="B54" s="41"/>
       <c r="C54" s="41"/>
@@ -6920,7 +7512,7 @@
       <c r="F54" s="67"/>
       <c r="J54" s="72"/>
     </row>
-    <row r="55" s="52" customFormat="1" spans="1:10">
+    <row r="55" spans="1:10" s="52" customFormat="1">
       <c r="A55" s="66"/>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -6929,7 +7521,7 @@
       <c r="F55" s="67"/>
       <c r="J55" s="72"/>
     </row>
-    <row r="56" s="52" customFormat="1" spans="1:10">
+    <row r="56" spans="1:10" s="52" customFormat="1">
       <c r="A56" s="66"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -6938,7 +7530,7 @@
       <c r="F56" s="67"/>
       <c r="J56" s="72"/>
     </row>
-    <row r="57" s="52" customFormat="1" spans="1:10">
+    <row r="57" spans="1:10" s="52" customFormat="1">
       <c r="A57" s="66"/>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
@@ -6947,7 +7539,7 @@
       <c r="F57" s="67"/>
       <c r="J57" s="72"/>
     </row>
-    <row r="58" s="52" customFormat="1" spans="1:10">
+    <row r="58" spans="1:10" s="52" customFormat="1">
       <c r="A58" s="66"/>
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
@@ -6956,7 +7548,7 @@
       <c r="F58" s="67"/>
       <c r="J58" s="72"/>
     </row>
-    <row r="59" s="52" customFormat="1" spans="1:10">
+    <row r="59" spans="1:10" s="52" customFormat="1">
       <c r="A59" s="66"/>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
@@ -6965,7 +7557,7 @@
       <c r="F59" s="67"/>
       <c r="J59" s="72"/>
     </row>
-    <row r="60" s="52" customFormat="1" spans="1:10">
+    <row r="60" spans="1:10" s="52" customFormat="1">
       <c r="A60" s="66"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -6974,7 +7566,7 @@
       <c r="F60" s="67"/>
       <c r="J60" s="72"/>
     </row>
-    <row r="61" s="52" customFormat="1" spans="1:10">
+    <row r="61" spans="1:10" s="52" customFormat="1">
       <c r="A61" s="66"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -6983,7 +7575,7 @@
       <c r="F61" s="67"/>
       <c r="J61" s="72"/>
     </row>
-    <row r="62" s="52" customFormat="1" spans="1:10">
+    <row r="62" spans="1:10" s="52" customFormat="1">
       <c r="A62" s="66"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -6992,7 +7584,7 @@
       <c r="F62" s="67"/>
       <c r="J62" s="72"/>
     </row>
-    <row r="63" s="52" customFormat="1" spans="1:10">
+    <row r="63" spans="1:10" s="52" customFormat="1">
       <c r="A63" s="66"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
@@ -7001,7 +7593,7 @@
       <c r="F63" s="67"/>
       <c r="J63" s="72"/>
     </row>
-    <row r="64" s="52" customFormat="1" spans="1:10">
+    <row r="64" spans="1:10" s="52" customFormat="1">
       <c r="A64" s="66"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -7010,7 +7602,7 @@
       <c r="F64" s="67"/>
       <c r="J64" s="72"/>
     </row>
-    <row r="65" s="52" customFormat="1" spans="1:10">
+    <row r="65" spans="1:10" s="52" customFormat="1">
       <c r="A65" s="66"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -7019,7 +7611,7 @@
       <c r="F65" s="67"/>
       <c r="J65" s="72"/>
     </row>
-    <row r="66" s="52" customFormat="1" spans="1:10">
+    <row r="66" spans="1:10" s="52" customFormat="1">
       <c r="A66" s="66"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -7028,7 +7620,7 @@
       <c r="F66" s="67"/>
       <c r="J66" s="72"/>
     </row>
-    <row r="67" s="52" customFormat="1" spans="1:10">
+    <row r="67" spans="1:10" s="52" customFormat="1">
       <c r="A67" s="66"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -7037,7 +7629,7 @@
       <c r="F67" s="67"/>
       <c r="J67" s="72"/>
     </row>
-    <row r="68" s="52" customFormat="1" spans="1:10">
+    <row r="68" spans="1:10" s="52" customFormat="1">
       <c r="A68" s="66"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -7046,7 +7638,7 @@
       <c r="F68" s="67"/>
       <c r="J68" s="72"/>
     </row>
-    <row r="69" s="52" customFormat="1" spans="1:10">
+    <row r="69" spans="1:10" s="52" customFormat="1">
       <c r="A69" s="66"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -7055,7 +7647,7 @@
       <c r="F69" s="67"/>
       <c r="J69" s="72"/>
     </row>
-    <row r="70" s="52" customFormat="1" spans="1:10">
+    <row r="70" spans="1:10" s="52" customFormat="1">
       <c r="A70" s="66"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -7064,7 +7656,7 @@
       <c r="F70" s="67"/>
       <c r="J70" s="72"/>
     </row>
-    <row r="71" s="52" customFormat="1" spans="1:10">
+    <row r="71" spans="1:10" s="52" customFormat="1">
       <c r="A71" s="66"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
@@ -7073,7 +7665,7 @@
       <c r="F71" s="67"/>
       <c r="J71" s="72"/>
     </row>
-    <row r="72" s="52" customFormat="1" spans="1:10">
+    <row r="72" spans="1:10" s="52" customFormat="1">
       <c r="A72" s="66"/>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -7082,7 +7674,7 @@
       <c r="F72" s="67"/>
       <c r="J72" s="72"/>
     </row>
-    <row r="73" s="52" customFormat="1" spans="1:10">
+    <row r="73" spans="1:10" s="52" customFormat="1">
       <c r="A73" s="66"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -7091,7 +7683,7 @@
       <c r="F73" s="67"/>
       <c r="J73" s="72"/>
     </row>
-    <row r="74" s="52" customFormat="1" spans="1:10">
+    <row r="74" spans="1:10" s="52" customFormat="1">
       <c r="A74" s="66"/>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
@@ -7100,7 +7692,7 @@
       <c r="F74" s="67"/>
       <c r="J74" s="72"/>
     </row>
-    <row r="75" s="52" customFormat="1" spans="1:10">
+    <row r="75" spans="1:10" s="52" customFormat="1">
       <c r="A75" s="66"/>
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
@@ -7109,7 +7701,7 @@
       <c r="F75" s="67"/>
       <c r="J75" s="72"/>
     </row>
-    <row r="76" s="52" customFormat="1" spans="1:10">
+    <row r="76" spans="1:10" s="52" customFormat="1">
       <c r="A76" s="66"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
@@ -7118,7 +7710,7 @@
       <c r="F76" s="67"/>
       <c r="J76" s="72"/>
     </row>
-    <row r="77" s="52" customFormat="1" spans="1:10">
+    <row r="77" spans="1:10" s="52" customFormat="1">
       <c r="A77" s="66"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
@@ -7127,7 +7719,7 @@
       <c r="F77" s="67"/>
       <c r="J77" s="72"/>
     </row>
-    <row r="78" s="52" customFormat="1" spans="1:10">
+    <row r="78" spans="1:10" s="52" customFormat="1">
       <c r="A78" s="66"/>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
@@ -7136,7 +7728,7 @@
       <c r="F78" s="67"/>
       <c r="J78" s="72"/>
     </row>
-    <row r="79" s="52" customFormat="1" spans="1:10">
+    <row r="79" spans="1:10" s="52" customFormat="1">
       <c r="A79" s="66"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -7145,7 +7737,7 @@
       <c r="F79" s="67"/>
       <c r="J79" s="72"/>
     </row>
-    <row r="80" s="52" customFormat="1" spans="1:10">
+    <row r="80" spans="1:10" s="52" customFormat="1">
       <c r="A80" s="66"/>
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
@@ -7154,7 +7746,7 @@
       <c r="F80" s="67"/>
       <c r="J80" s="72"/>
     </row>
-    <row r="81" s="52" customFormat="1" spans="1:10">
+    <row r="81" spans="1:10" s="52" customFormat="1">
       <c r="A81" s="66"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41"/>
@@ -7163,7 +7755,7 @@
       <c r="F81" s="67"/>
       <c r="J81" s="72"/>
     </row>
-    <row r="82" s="52" customFormat="1" spans="1:10">
+    <row r="82" spans="1:10" s="52" customFormat="1">
       <c r="A82" s="66"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -7172,7 +7764,7 @@
       <c r="F82" s="67"/>
       <c r="J82" s="72"/>
     </row>
-    <row r="83" s="52" customFormat="1" spans="1:10">
+    <row r="83" spans="1:10" s="52" customFormat="1">
       <c r="A83" s="66"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -7181,7 +7773,7 @@
       <c r="F83" s="67"/>
       <c r="J83" s="72"/>
     </row>
-    <row r="84" s="52" customFormat="1" spans="1:10">
+    <row r="84" spans="1:10" s="52" customFormat="1">
       <c r="A84" s="66"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
@@ -7190,7 +7782,7 @@
       <c r="F84" s="67"/>
       <c r="J84" s="72"/>
     </row>
-    <row r="85" s="52" customFormat="1" spans="1:10">
+    <row r="85" spans="1:10" s="52" customFormat="1">
       <c r="A85" s="66"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
@@ -7199,7 +7791,7 @@
       <c r="F85" s="67"/>
       <c r="J85" s="72"/>
     </row>
-    <row r="86" s="52" customFormat="1" spans="1:10">
+    <row r="86" spans="1:10" s="52" customFormat="1">
       <c r="A86" s="66"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
@@ -7208,7 +7800,7 @@
       <c r="F86" s="67"/>
       <c r="J86" s="72"/>
     </row>
-    <row r="87" s="52" customFormat="1" spans="1:10">
+    <row r="87" spans="1:10" s="52" customFormat="1">
       <c r="A87" s="66"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -7217,7 +7809,7 @@
       <c r="F87" s="67"/>
       <c r="J87" s="72"/>
     </row>
-    <row r="88" s="52" customFormat="1" spans="1:10">
+    <row r="88" spans="1:10" s="52" customFormat="1">
       <c r="A88" s="66"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -7226,7 +7818,7 @@
       <c r="F88" s="67"/>
       <c r="J88" s="72"/>
     </row>
-    <row r="89" s="52" customFormat="1" spans="1:10">
+    <row r="89" spans="1:10" s="52" customFormat="1">
       <c r="A89" s="66"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -7235,7 +7827,7 @@
       <c r="F89" s="67"/>
       <c r="J89" s="72"/>
     </row>
-    <row r="90" s="52" customFormat="1" spans="1:10">
+    <row r="90" spans="1:10" s="52" customFormat="1">
       <c r="A90" s="66"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41"/>
@@ -7244,7 +7836,7 @@
       <c r="F90" s="67"/>
       <c r="J90" s="72"/>
     </row>
-    <row r="91" s="52" customFormat="1" spans="1:10">
+    <row r="91" spans="1:10" s="52" customFormat="1">
       <c r="A91" s="66"/>
       <c r="B91" s="41"/>
       <c r="C91" s="41"/>
@@ -7253,7 +7845,7 @@
       <c r="F91" s="67"/>
       <c r="J91" s="72"/>
     </row>
-    <row r="92" s="52" customFormat="1" spans="1:10">
+    <row r="92" spans="1:10" s="52" customFormat="1">
       <c r="A92" s="66"/>
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
@@ -7262,7 +7854,7 @@
       <c r="F92" s="67"/>
       <c r="J92" s="72"/>
     </row>
-    <row r="93" s="52" customFormat="1" spans="1:10">
+    <row r="93" spans="1:10" s="52" customFormat="1">
       <c r="A93" s="66"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -7271,7 +7863,7 @@
       <c r="F93" s="67"/>
       <c r="J93" s="72"/>
     </row>
-    <row r="94" s="52" customFormat="1" spans="1:10">
+    <row r="94" spans="1:10" s="52" customFormat="1">
       <c r="A94" s="66"/>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
@@ -7280,7 +7872,7 @@
       <c r="F94" s="67"/>
       <c r="J94" s="72"/>
     </row>
-    <row r="95" s="52" customFormat="1" spans="1:10">
+    <row r="95" spans="1:10" s="52" customFormat="1">
       <c r="A95" s="66"/>
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
@@ -7289,7 +7881,7 @@
       <c r="F95" s="67"/>
       <c r="J95" s="72"/>
     </row>
-    <row r="96" s="52" customFormat="1" spans="1:10">
+    <row r="96" spans="1:10" s="52" customFormat="1">
       <c r="A96" s="66"/>
       <c r="B96" s="41"/>
       <c r="C96" s="41"/>
@@ -7298,7 +7890,7 @@
       <c r="F96" s="67"/>
       <c r="J96" s="72"/>
     </row>
-    <row r="97" s="52" customFormat="1" spans="1:10">
+    <row r="97" spans="1:10" s="52" customFormat="1">
       <c r="A97" s="66"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -7307,7 +7899,7 @@
       <c r="F97" s="67"/>
       <c r="J97" s="72"/>
     </row>
-    <row r="98" s="52" customFormat="1" spans="1:10">
+    <row r="98" spans="1:10" s="52" customFormat="1">
       <c r="A98" s="66"/>
       <c r="B98" s="41"/>
       <c r="C98" s="41"/>
@@ -7316,7 +7908,7 @@
       <c r="F98" s="67"/>
       <c r="J98" s="72"/>
     </row>
-    <row r="99" s="52" customFormat="1" spans="1:10">
+    <row r="99" spans="1:10" s="52" customFormat="1">
       <c r="A99" s="66"/>
       <c r="B99" s="41"/>
       <c r="C99" s="41"/>
@@ -7325,7 +7917,7 @@
       <c r="F99" s="67"/>
       <c r="J99" s="72"/>
     </row>
-    <row r="100" s="52" customFormat="1" spans="1:10">
+    <row r="100" spans="1:10" s="52" customFormat="1">
       <c r="A100" s="66"/>
       <c r="B100" s="41"/>
       <c r="C100" s="41"/>
@@ -7334,7 +7926,7 @@
       <c r="F100" s="67"/>
       <c r="J100" s="72"/>
     </row>
-    <row r="101" s="52" customFormat="1" spans="1:10">
+    <row r="101" spans="1:10" s="52" customFormat="1">
       <c r="A101" s="66"/>
       <c r="B101" s="41"/>
       <c r="C101" s="41"/>
@@ -7343,7 +7935,7 @@
       <c r="F101" s="67"/>
       <c r="J101" s="72"/>
     </row>
-    <row r="102" s="52" customFormat="1" spans="1:10">
+    <row r="102" spans="1:10" s="52" customFormat="1">
       <c r="A102" s="66"/>
       <c r="B102" s="41"/>
       <c r="C102" s="41"/>
@@ -7352,7 +7944,7 @@
       <c r="F102" s="67"/>
       <c r="J102" s="72"/>
     </row>
-    <row r="103" s="52" customFormat="1" spans="1:10">
+    <row r="103" spans="1:10" s="52" customFormat="1">
       <c r="A103" s="66"/>
       <c r="B103" s="41"/>
       <c r="C103" s="41"/>
@@ -7361,7 +7953,7 @@
       <c r="F103" s="67"/>
       <c r="J103" s="72"/>
     </row>
-    <row r="104" s="52" customFormat="1" spans="1:10">
+    <row r="104" spans="1:10" s="52" customFormat="1">
       <c r="A104" s="66"/>
       <c r="B104" s="41"/>
       <c r="C104" s="41"/>
@@ -7370,7 +7962,7 @@
       <c r="F104" s="67"/>
       <c r="J104" s="72"/>
     </row>
-    <row r="105" s="52" customFormat="1" spans="1:10">
+    <row r="105" spans="1:10" s="52" customFormat="1">
       <c r="A105" s="66"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41"/>
@@ -7379,7 +7971,7 @@
       <c r="F105" s="67"/>
       <c r="J105" s="72"/>
     </row>
-    <row r="106" s="52" customFormat="1" spans="1:10">
+    <row r="106" spans="1:10" s="52" customFormat="1">
       <c r="A106" s="66"/>
       <c r="B106" s="41"/>
       <c r="C106" s="41"/>
@@ -7388,7 +7980,7 @@
       <c r="F106" s="67"/>
       <c r="J106" s="72"/>
     </row>
-    <row r="107" s="52" customFormat="1" spans="1:10">
+    <row r="107" spans="1:10" s="52" customFormat="1">
       <c r="A107" s="66"/>
       <c r="B107" s="41"/>
       <c r="C107" s="41"/>
@@ -7397,7 +7989,7 @@
       <c r="F107" s="67"/>
       <c r="J107" s="72"/>
     </row>
-    <row r="108" s="52" customFormat="1" spans="1:10">
+    <row r="108" spans="1:10" s="52" customFormat="1">
       <c r="A108" s="66"/>
       <c r="B108" s="41"/>
       <c r="C108" s="41"/>
@@ -7406,7 +7998,7 @@
       <c r="F108" s="67"/>
       <c r="J108" s="72"/>
     </row>
-    <row r="109" s="52" customFormat="1" spans="1:10">
+    <row r="109" spans="1:10" s="52" customFormat="1">
       <c r="A109" s="66"/>
       <c r="B109" s="41"/>
       <c r="C109" s="41"/>
@@ -7415,7 +8007,7 @@
       <c r="F109" s="67"/>
       <c r="J109" s="72"/>
     </row>
-    <row r="110" s="52" customFormat="1" spans="1:10">
+    <row r="110" spans="1:10" s="52" customFormat="1">
       <c r="A110" s="66"/>
       <c r="B110" s="41"/>
       <c r="C110" s="41"/>
@@ -7424,7 +8016,7 @@
       <c r="F110" s="67"/>
       <c r="J110" s="72"/>
     </row>
-    <row r="111" s="52" customFormat="1" spans="1:10">
+    <row r="111" spans="1:10" s="52" customFormat="1">
       <c r="A111" s="66"/>
       <c r="B111" s="41"/>
       <c r="C111" s="41"/>
@@ -7433,7 +8025,7 @@
       <c r="F111" s="67"/>
       <c r="J111" s="72"/>
     </row>
-    <row r="112" s="52" customFormat="1" spans="1:10">
+    <row r="112" spans="1:10" s="52" customFormat="1">
       <c r="A112" s="66"/>
       <c r="B112" s="41"/>
       <c r="C112" s="41"/>
@@ -7442,7 +8034,7 @@
       <c r="F112" s="67"/>
       <c r="J112" s="72"/>
     </row>
-    <row r="113" s="52" customFormat="1" spans="1:10">
+    <row r="113" spans="1:10" s="52" customFormat="1">
       <c r="A113" s="66"/>
       <c r="B113" s="41"/>
       <c r="C113" s="41"/>
@@ -7451,7 +8043,7 @@
       <c r="F113" s="67"/>
       <c r="J113" s="72"/>
     </row>
-    <row r="114" s="52" customFormat="1" spans="1:10">
+    <row r="114" spans="1:10" s="52" customFormat="1">
       <c r="A114" s="66"/>
       <c r="B114" s="41"/>
       <c r="C114" s="41"/>
@@ -7460,7 +8052,7 @@
       <c r="F114" s="67"/>
       <c r="J114" s="72"/>
     </row>
-    <row r="115" s="52" customFormat="1" spans="1:10">
+    <row r="115" spans="1:10" s="52" customFormat="1">
       <c r="A115" s="66"/>
       <c r="B115" s="41"/>
       <c r="C115" s="41"/>
@@ -7469,7 +8061,7 @@
       <c r="F115" s="67"/>
       <c r="J115" s="72"/>
     </row>
-    <row r="116" s="52" customFormat="1" spans="1:10">
+    <row r="116" spans="1:10" s="52" customFormat="1">
       <c r="A116" s="66"/>
       <c r="B116" s="41"/>
       <c r="C116" s="41"/>
@@ -7478,7 +8070,7 @@
       <c r="F116" s="67"/>
       <c r="J116" s="72"/>
     </row>
-    <row r="117" s="52" customFormat="1" spans="1:10">
+    <row r="117" spans="1:10" s="52" customFormat="1">
       <c r="A117" s="66"/>
       <c r="B117" s="41"/>
       <c r="C117" s="41"/>
@@ -7487,7 +8079,7 @@
       <c r="F117" s="67"/>
       <c r="J117" s="72"/>
     </row>
-    <row r="118" s="52" customFormat="1" spans="1:10">
+    <row r="118" spans="1:10" s="52" customFormat="1">
       <c r="A118" s="66"/>
       <c r="B118" s="41"/>
       <c r="C118" s="41"/>
@@ -7496,7 +8088,7 @@
       <c r="F118" s="67"/>
       <c r="J118" s="72"/>
     </row>
-    <row r="119" s="52" customFormat="1" spans="1:10">
+    <row r="119" spans="1:10" s="52" customFormat="1">
       <c r="A119" s="66"/>
       <c r="B119" s="41"/>
       <c r="C119" s="41"/>
@@ -7505,7 +8097,7 @@
       <c r="F119" s="67"/>
       <c r="J119" s="72"/>
     </row>
-    <row r="120" s="52" customFormat="1" spans="1:10">
+    <row r="120" spans="1:10" s="52" customFormat="1">
       <c r="A120" s="66"/>
       <c r="B120" s="41"/>
       <c r="C120" s="41"/>
@@ -7514,7 +8106,7 @@
       <c r="F120" s="67"/>
       <c r="J120" s="72"/>
     </row>
-    <row r="121" s="52" customFormat="1" spans="1:10">
+    <row r="121" spans="1:10" s="52" customFormat="1">
       <c r="A121" s="66"/>
       <c r="B121" s="41"/>
       <c r="C121" s="41"/>
@@ -7523,7 +8115,7 @@
       <c r="F121" s="67"/>
       <c r="J121" s="72"/>
     </row>
-    <row r="122" s="52" customFormat="1" spans="1:10">
+    <row r="122" spans="1:10" s="52" customFormat="1">
       <c r="A122" s="66"/>
       <c r="B122" s="41"/>
       <c r="C122" s="41"/>
@@ -7532,7 +8124,7 @@
       <c r="F122" s="67"/>
       <c r="J122" s="72"/>
     </row>
-    <row r="123" s="52" customFormat="1" spans="1:10">
+    <row r="123" spans="1:10" s="52" customFormat="1">
       <c r="A123" s="66"/>
       <c r="B123" s="41"/>
       <c r="C123" s="41"/>
@@ -7541,7 +8133,7 @@
       <c r="F123" s="67"/>
       <c r="J123" s="72"/>
     </row>
-    <row r="124" s="52" customFormat="1" spans="1:10">
+    <row r="124" spans="1:10" s="52" customFormat="1">
       <c r="A124" s="66"/>
       <c r="B124" s="41"/>
       <c r="C124" s="41"/>
@@ -7550,7 +8142,7 @@
       <c r="F124" s="67"/>
       <c r="J124" s="72"/>
     </row>
-    <row r="125" s="52" customFormat="1" spans="1:10">
+    <row r="125" spans="1:10" s="52" customFormat="1">
       <c r="A125" s="66"/>
       <c r="B125" s="41"/>
       <c r="C125" s="41"/>
@@ -7559,7 +8151,7 @@
       <c r="F125" s="67"/>
       <c r="J125" s="72"/>
     </row>
-    <row r="126" s="52" customFormat="1" spans="1:10">
+    <row r="126" spans="1:10" s="52" customFormat="1">
       <c r="A126" s="66"/>
       <c r="B126" s="41"/>
       <c r="C126" s="41"/>
@@ -7568,7 +8160,7 @@
       <c r="F126" s="67"/>
       <c r="J126" s="72"/>
     </row>
-    <row r="127" s="52" customFormat="1" spans="1:10">
+    <row r="127" spans="1:10" s="52" customFormat="1">
       <c r="A127" s="66"/>
       <c r="B127" s="41"/>
       <c r="C127" s="41"/>
@@ -7577,7 +8169,7 @@
       <c r="F127" s="67"/>
       <c r="J127" s="72"/>
     </row>
-    <row r="128" s="52" customFormat="1" spans="1:10">
+    <row r="128" spans="1:10" s="52" customFormat="1">
       <c r="A128" s="66"/>
       <c r="B128" s="41"/>
       <c r="C128" s="41"/>
@@ -7586,7 +8178,7 @@
       <c r="F128" s="67"/>
       <c r="J128" s="72"/>
     </row>
-    <row r="129" s="52" customFormat="1" spans="1:10">
+    <row r="129" spans="1:10" s="52" customFormat="1">
       <c r="A129" s="66"/>
       <c r="B129" s="41"/>
       <c r="C129" s="41"/>
@@ -7595,7 +8187,7 @@
       <c r="F129" s="67"/>
       <c r="J129" s="72"/>
     </row>
-    <row r="130" s="52" customFormat="1" spans="1:10">
+    <row r="130" spans="1:10" s="52" customFormat="1">
       <c r="A130" s="66"/>
       <c r="B130" s="41"/>
       <c r="C130" s="41"/>
@@ -7604,7 +8196,7 @@
       <c r="F130" s="67"/>
       <c r="J130" s="72"/>
     </row>
-    <row r="131" s="52" customFormat="1" spans="1:10">
+    <row r="131" spans="1:10" s="52" customFormat="1">
       <c r="A131" s="66"/>
       <c r="B131" s="41"/>
       <c r="C131" s="41"/>
@@ -7613,7 +8205,7 @@
       <c r="F131" s="67"/>
       <c r="J131" s="72"/>
     </row>
-    <row r="132" s="52" customFormat="1" spans="1:10">
+    <row r="132" spans="1:10" s="52" customFormat="1">
       <c r="A132" s="66"/>
       <c r="B132" s="41"/>
       <c r="C132" s="41"/>
@@ -7622,7 +8214,7 @@
       <c r="F132" s="67"/>
       <c r="J132" s="72"/>
     </row>
-    <row r="133" s="52" customFormat="1" spans="1:10">
+    <row r="133" spans="1:10" s="52" customFormat="1">
       <c r="A133" s="66"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
@@ -7631,7 +8223,7 @@
       <c r="F133" s="67"/>
       <c r="J133" s="72"/>
     </row>
-    <row r="134" s="52" customFormat="1" spans="1:10">
+    <row r="134" spans="1:10" s="52" customFormat="1">
       <c r="A134" s="66"/>
       <c r="B134" s="41"/>
       <c r="C134" s="41"/>
@@ -7640,7 +8232,7 @@
       <c r="F134" s="67"/>
       <c r="J134" s="72"/>
     </row>
-    <row r="135" s="52" customFormat="1" spans="1:10">
+    <row r="135" spans="1:10" s="52" customFormat="1">
       <c r="A135" s="66"/>
       <c r="B135" s="41"/>
       <c r="C135" s="41"/>
@@ -7649,7 +8241,7 @@
       <c r="F135" s="67"/>
       <c r="J135" s="72"/>
     </row>
-    <row r="136" s="52" customFormat="1" spans="1:10">
+    <row r="136" spans="1:10" s="52" customFormat="1">
       <c r="A136" s="66"/>
       <c r="B136" s="41"/>
       <c r="C136" s="41"/>
@@ -7658,7 +8250,7 @@
       <c r="F136" s="67"/>
       <c r="J136" s="72"/>
     </row>
-    <row r="137" s="52" customFormat="1" spans="1:10">
+    <row r="137" spans="1:10" s="52" customFormat="1">
       <c r="A137" s="66"/>
       <c r="B137" s="41"/>
       <c r="C137" s="41"/>
@@ -7667,7 +8259,7 @@
       <c r="F137" s="67"/>
       <c r="J137" s="72"/>
     </row>
-    <row r="138" s="52" customFormat="1" spans="1:10">
+    <row r="138" spans="1:10" s="52" customFormat="1">
       <c r="A138" s="66"/>
       <c r="B138" s="41"/>
       <c r="C138" s="41"/>
@@ -7676,7 +8268,7 @@
       <c r="F138" s="67"/>
       <c r="J138" s="72"/>
     </row>
-    <row r="139" s="52" customFormat="1" spans="1:10">
+    <row r="139" spans="1:10" s="52" customFormat="1">
       <c r="A139" s="66"/>
       <c r="B139" s="41"/>
       <c r="C139" s="41"/>
@@ -7685,7 +8277,7 @@
       <c r="F139" s="67"/>
       <c r="J139" s="72"/>
     </row>
-    <row r="140" s="52" customFormat="1" spans="1:10">
+    <row r="140" spans="1:10" s="52" customFormat="1">
       <c r="A140" s="66"/>
       <c r="B140" s="41"/>
       <c r="C140" s="41"/>
@@ -7694,7 +8286,7 @@
       <c r="F140" s="67"/>
       <c r="J140" s="72"/>
     </row>
-    <row r="141" s="52" customFormat="1" spans="1:10">
+    <row r="141" spans="1:10" s="52" customFormat="1">
       <c r="A141" s="66"/>
       <c r="B141" s="41"/>
       <c r="C141" s="41"/>
@@ -7703,7 +8295,7 @@
       <c r="F141" s="67"/>
       <c r="J141" s="72"/>
     </row>
-    <row r="142" s="52" customFormat="1" spans="1:10">
+    <row r="142" spans="1:10" s="52" customFormat="1">
       <c r="A142" s="66"/>
       <c r="B142" s="41"/>
       <c r="C142" s="41"/>
@@ -7712,7 +8304,7 @@
       <c r="F142" s="67"/>
       <c r="J142" s="72"/>
     </row>
-    <row r="143" s="52" customFormat="1" spans="1:10">
+    <row r="143" spans="1:10" s="52" customFormat="1">
       <c r="A143" s="66"/>
       <c r="B143" s="41"/>
       <c r="C143" s="41"/>
@@ -7721,7 +8313,7 @@
       <c r="F143" s="67"/>
       <c r="J143" s="72"/>
     </row>
-    <row r="144" s="52" customFormat="1" spans="1:10">
+    <row r="144" spans="1:10" s="52" customFormat="1">
       <c r="A144" s="66"/>
       <c r="B144" s="41"/>
       <c r="C144" s="41"/>
@@ -7730,7 +8322,7 @@
       <c r="F144" s="67"/>
       <c r="J144" s="72"/>
     </row>
-    <row r="145" s="52" customFormat="1" spans="1:10">
+    <row r="145" spans="1:10" s="52" customFormat="1">
       <c r="A145" s="66"/>
       <c r="B145" s="41"/>
       <c r="C145" s="41"/>
@@ -7739,7 +8331,7 @@
       <c r="F145" s="67"/>
       <c r="J145" s="72"/>
     </row>
-    <row r="146" s="52" customFormat="1" spans="1:10">
+    <row r="146" spans="1:10" s="52" customFormat="1">
       <c r="A146" s="66"/>
       <c r="B146" s="41"/>
       <c r="C146" s="41"/>
@@ -7748,7 +8340,7 @@
       <c r="F146" s="67"/>
       <c r="J146" s="72"/>
     </row>
-    <row r="147" s="52" customFormat="1" spans="1:10">
+    <row r="147" spans="1:10" s="52" customFormat="1">
       <c r="A147" s="66"/>
       <c r="B147" s="41"/>
       <c r="C147" s="41"/>
@@ -7757,7 +8349,7 @@
       <c r="F147" s="67"/>
       <c r="J147" s="72"/>
     </row>
-    <row r="148" s="52" customFormat="1" spans="1:10">
+    <row r="148" spans="1:10" s="52" customFormat="1">
       <c r="A148" s="66"/>
       <c r="B148" s="41"/>
       <c r="C148" s="41"/>
@@ -7766,7 +8358,7 @@
       <c r="F148" s="67"/>
       <c r="J148" s="72"/>
     </row>
-    <row r="149" s="52" customFormat="1" spans="1:10">
+    <row r="149" spans="1:10" s="52" customFormat="1">
       <c r="A149" s="66"/>
       <c r="B149" s="41"/>
       <c r="C149" s="41"/>
@@ -7775,7 +8367,7 @@
       <c r="F149" s="67"/>
       <c r="J149" s="72"/>
     </row>
-    <row r="150" s="52" customFormat="1" spans="1:10">
+    <row r="150" spans="1:10" s="52" customFormat="1">
       <c r="A150" s="66"/>
       <c r="B150" s="41"/>
       <c r="C150" s="41"/>
@@ -7784,7 +8376,7 @@
       <c r="F150" s="67"/>
       <c r="J150" s="72"/>
     </row>
-    <row r="151" s="52" customFormat="1" spans="1:10">
+    <row r="151" spans="1:10" s="52" customFormat="1">
       <c r="A151" s="66"/>
       <c r="B151" s="41"/>
       <c r="C151" s="41"/>
@@ -7793,7 +8385,7 @@
       <c r="F151" s="67"/>
       <c r="J151" s="72"/>
     </row>
-    <row r="152" s="52" customFormat="1" spans="1:10">
+    <row r="152" spans="1:10" s="52" customFormat="1">
       <c r="A152" s="66"/>
       <c r="B152" s="41"/>
       <c r="C152" s="41"/>
@@ -7802,7 +8394,7 @@
       <c r="F152" s="67"/>
       <c r="J152" s="72"/>
     </row>
-    <row r="153" s="52" customFormat="1" spans="1:10">
+    <row r="153" spans="1:10" s="52" customFormat="1">
       <c r="A153" s="66"/>
       <c r="B153" s="41"/>
       <c r="C153" s="41"/>
@@ -7811,7 +8403,7 @@
       <c r="F153" s="67"/>
       <c r="J153" s="72"/>
     </row>
-    <row r="154" s="52" customFormat="1" spans="1:10">
+    <row r="154" spans="1:10" s="52" customFormat="1">
       <c r="A154" s="66"/>
       <c r="B154" s="41"/>
       <c r="C154" s="41"/>
@@ -7820,7 +8412,7 @@
       <c r="F154" s="67"/>
       <c r="J154" s="72"/>
     </row>
-    <row r="155" s="52" customFormat="1" spans="1:10">
+    <row r="155" spans="1:10" s="52" customFormat="1">
       <c r="A155" s="66"/>
       <c r="B155" s="41"/>
       <c r="C155" s="41"/>
@@ -7829,7 +8421,7 @@
       <c r="F155" s="67"/>
       <c r="J155" s="72"/>
     </row>
-    <row r="156" s="52" customFormat="1" spans="1:10">
+    <row r="156" spans="1:10" s="52" customFormat="1">
       <c r="A156" s="66"/>
       <c r="B156" s="41"/>
       <c r="C156" s="41"/>
@@ -7838,7 +8430,7 @@
       <c r="F156" s="67"/>
       <c r="J156" s="72"/>
     </row>
-    <row r="157" s="52" customFormat="1" spans="1:10">
+    <row r="157" spans="1:10" s="52" customFormat="1">
       <c r="A157" s="66"/>
       <c r="B157" s="41"/>
       <c r="C157" s="41"/>
@@ -7847,7 +8439,7 @@
       <c r="F157" s="67"/>
       <c r="J157" s="72"/>
     </row>
-    <row r="158" s="52" customFormat="1" spans="1:10">
+    <row r="158" spans="1:10" s="52" customFormat="1">
       <c r="A158" s="66"/>
       <c r="B158" s="41"/>
       <c r="C158" s="41"/>
@@ -7856,7 +8448,7 @@
       <c r="F158" s="67"/>
       <c r="J158" s="72"/>
     </row>
-    <row r="159" s="52" customFormat="1" spans="1:10">
+    <row r="159" spans="1:10" s="52" customFormat="1">
       <c r="A159" s="66"/>
       <c r="B159" s="41"/>
       <c r="C159" s="41"/>
@@ -7865,7 +8457,7 @@
       <c r="F159" s="67"/>
       <c r="J159" s="72"/>
     </row>
-    <row r="160" s="52" customFormat="1" spans="1:10">
+    <row r="160" spans="1:10" s="52" customFormat="1">
       <c r="A160" s="66"/>
       <c r="B160" s="41"/>
       <c r="C160" s="41"/>
@@ -7874,7 +8466,7 @@
       <c r="F160" s="67"/>
       <c r="J160" s="72"/>
     </row>
-    <row r="161" s="52" customFormat="1" spans="1:10">
+    <row r="161" spans="1:10" s="52" customFormat="1">
       <c r="A161" s="66"/>
       <c r="B161" s="41"/>
       <c r="C161" s="41"/>
@@ -7883,7 +8475,7 @@
       <c r="F161" s="67"/>
       <c r="J161" s="72"/>
     </row>
-    <row r="162" s="52" customFormat="1" spans="1:10">
+    <row r="162" spans="1:10" s="52" customFormat="1">
       <c r="A162" s="66"/>
       <c r="B162" s="41"/>
       <c r="C162" s="41"/>
@@ -7892,7 +8484,7 @@
       <c r="F162" s="67"/>
       <c r="J162" s="72"/>
     </row>
-    <row r="163" s="52" customFormat="1" spans="1:10">
+    <row r="163" spans="1:10" s="52" customFormat="1">
       <c r="A163" s="66"/>
       <c r="B163" s="41"/>
       <c r="C163" s="41"/>
@@ -7901,7 +8493,7 @@
       <c r="F163" s="67"/>
       <c r="J163" s="72"/>
     </row>
-    <row r="164" s="52" customFormat="1" spans="1:10">
+    <row r="164" spans="1:10" s="52" customFormat="1">
       <c r="A164" s="66"/>
       <c r="B164" s="41"/>
       <c r="C164" s="41"/>
@@ -7910,7 +8502,7 @@
       <c r="F164" s="67"/>
       <c r="J164" s="72"/>
     </row>
-    <row r="165" s="52" customFormat="1" spans="1:10">
+    <row r="165" spans="1:10" s="52" customFormat="1">
       <c r="A165" s="66"/>
       <c r="B165" s="41"/>
       <c r="C165" s="41"/>
@@ -7919,7 +8511,7 @@
       <c r="F165" s="67"/>
       <c r="J165" s="72"/>
     </row>
-    <row r="166" s="52" customFormat="1" spans="1:10">
+    <row r="166" spans="1:10" s="52" customFormat="1">
       <c r="A166" s="66"/>
       <c r="B166" s="41"/>
       <c r="C166" s="41"/>
@@ -7928,7 +8520,7 @@
       <c r="F166" s="67"/>
       <c r="J166" s="72"/>
     </row>
-    <row r="167" s="52" customFormat="1" spans="1:10">
+    <row r="167" spans="1:10" s="52" customFormat="1">
       <c r="A167" s="66"/>
       <c r="B167" s="41"/>
       <c r="C167" s="41"/>
@@ -7937,7 +8529,7 @@
       <c r="F167" s="67"/>
       <c r="J167" s="72"/>
     </row>
-    <row r="168" s="52" customFormat="1" spans="1:10">
+    <row r="168" spans="1:10" s="52" customFormat="1">
       <c r="A168" s="66"/>
       <c r="B168" s="41"/>
       <c r="C168" s="41"/>
@@ -7946,7 +8538,7 @@
       <c r="F168" s="67"/>
       <c r="J168" s="72"/>
     </row>
-    <row r="169" s="52" customFormat="1" spans="1:10">
+    <row r="169" spans="1:10" s="52" customFormat="1">
       <c r="A169" s="66"/>
       <c r="B169" s="41"/>
       <c r="C169" s="41"/>
@@ -7955,7 +8547,7 @@
       <c r="F169" s="67"/>
       <c r="J169" s="72"/>
     </row>
-    <row r="170" s="52" customFormat="1" spans="1:10">
+    <row r="170" spans="1:10" s="52" customFormat="1">
       <c r="A170" s="66"/>
       <c r="B170" s="41"/>
       <c r="C170" s="41"/>
@@ -7964,7 +8556,7 @@
       <c r="F170" s="67"/>
       <c r="J170" s="72"/>
     </row>
-    <row r="171" s="52" customFormat="1" spans="1:10">
+    <row r="171" spans="1:10" s="52" customFormat="1">
       <c r="A171" s="56"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -7973,7 +8565,7 @@
       <c r="F171" s="67"/>
       <c r="J171" s="72"/>
     </row>
-    <row r="172" s="52" customFormat="1" spans="1:10">
+    <row r="172" spans="1:10" s="52" customFormat="1">
       <c r="A172" s="56"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -7984,249 +8576,249 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="5" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="2" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="1" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="4" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="3" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="1" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="59" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="58" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="1" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="51" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="50" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="1" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="49" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="48" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="cellIs" dxfId="1" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="47" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="46" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="1" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="45" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="44" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="cellIs" dxfId="1" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="43" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="42" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="cellIs" dxfId="1" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="41" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="40" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" dxfId="1" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="39" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="38" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="37" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="36" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="35" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="34" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="cellIs" dxfId="1" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="33" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="32" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="cellIs" dxfId="1" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="31" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="30" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="29" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="28" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="1" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="27" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="26" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106">
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="23" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="22" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="21" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="20" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="19" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="18" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="17" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="16" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="15" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="14" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="13" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="12" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="7" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B61">
-    <cfRule type="cellIs" dxfId="1" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="57" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="56" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:B80">
-    <cfRule type="cellIs" dxfId="1" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="55" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="54" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:B82">
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="53" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="52" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97:B105">
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="25" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="24" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B149">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="11" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="10" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B150:B170">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="9" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83 B4:B24 B2 B28:B38 B26">
-    <cfRule type="cellIs" dxfId="1" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83 B6:B24 B2 B28:B38 B26">
-    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8238,41 +8830,38 @@
       <formula1>"warm-up,vocabulary, speaking, phonics, reading, writing"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.5047619047619" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.5047619047619" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.3333333333333" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.5047619047619" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.3333333333333" style="8" customWidth="1"/>
-    <col min="6" max="6" width="34.5047619047619" style="7" customWidth="1"/>
-    <col min="7" max="7" width="37.5047619047619" style="7" customWidth="1"/>
-    <col min="8" max="8" width="34.5047619047619" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="7" customWidth="1"/>
     <col min="9" max="9" width="69" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.16190476190476" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="8.82857142857143" style="7"/>
+    <col min="10" max="10" width="9.140625" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -8304,7 +8893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="53.25" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="53.25" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -8334,7 +8923,7 @@
       </c>
       <c r="J2" s="44"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="60" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="60" customHeight="1">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -8364,7 +8953,7 @@
       </c>
       <c r="J3" s="44"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="53.25" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="53.25" customHeight="1">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -8394,7 +8983,7 @@
       </c>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="95.25" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="95.25" customHeight="1">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -8422,7 +9011,7 @@
       </c>
       <c r="J5" s="44"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="171.75" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="171.75" customHeight="1">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -8454,7 +9043,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="130.5" customHeight="1" spans="1:10">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="130.5" customHeight="1">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -8486,7 +9075,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="161.25" customHeight="1" spans="1:10">
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="161.25" customHeight="1">
       <c r="A8" s="15">
         <v>6</v>
       </c>
@@ -8518,7 +9107,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="131.25" customHeight="1" spans="1:10">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="131.25" customHeight="1">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -8548,7 +9137,7 @@
       </c>
       <c r="J9" s="49"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="53.25" customHeight="1" spans="1:10">
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="53.25" customHeight="1">
       <c r="A10" s="15">
         <v>8</v>
       </c>
@@ -8578,7 +9167,7 @@
       </c>
       <c r="J10" s="47"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="53.25" customHeight="1" spans="1:10">
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="53.25" customHeight="1">
       <c r="A11" s="15">
         <v>9</v>
       </c>
@@ -8610,7 +9199,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="185.25" customHeight="1" spans="1:10">
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="185.25" customHeight="1">
       <c r="A12" s="15">
         <v>10</v>
       </c>
@@ -8642,7 +9231,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="206.25" customHeight="1" spans="1:10">
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="206.25" customHeight="1">
       <c r="A13" s="15">
         <v>11</v>
       </c>
@@ -8672,7 +9261,7 @@
       </c>
       <c r="J13" s="44"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="105" customHeight="1" spans="1:10">
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="105" customHeight="1">
       <c r="A14" s="15">
         <v>12</v>
       </c>
@@ -8704,7 +9293,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="211.5" customHeight="1" spans="1:10">
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="211.5" customHeight="1">
       <c r="A15" s="15">
         <v>13</v>
       </c>
@@ -8734,7 +9323,7 @@
       </c>
       <c r="J15" s="44"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="119.25" customHeight="1" spans="1:10">
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="119.25" customHeight="1">
       <c r="A16" s="15">
         <v>14</v>
       </c>
@@ -8766,7 +9355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="147.75" customHeight="1" spans="1:10">
+    <row r="17" spans="1:14" s="2" customFormat="1" ht="147.75" customHeight="1">
       <c r="A17" s="15">
         <v>15</v>
       </c>
@@ -8796,7 +9385,7 @@
       </c>
       <c r="J17" s="44"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="189" customHeight="1" spans="1:10">
+    <row r="18" spans="1:14" s="2" customFormat="1" ht="189" customHeight="1">
       <c r="A18" s="15">
         <v>16</v>
       </c>
@@ -8828,7 +9417,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="189" customHeight="1" spans="1:10">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="189" customHeight="1">
       <c r="A19" s="15">
         <v>17</v>
       </c>
@@ -8860,7 +9449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="73.5" customHeight="1" spans="1:10">
+    <row r="20" spans="1:14" s="2" customFormat="1" ht="73.5" customHeight="1">
       <c r="A20" s="15">
         <v>18</v>
       </c>
@@ -8890,7 +9479,7 @@
       </c>
       <c r="J20" s="44"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="53.25" customHeight="1" spans="1:10">
+    <row r="21" spans="1:14" s="2" customFormat="1" ht="53.25" customHeight="1">
       <c r="A21" s="15">
         <v>19</v>
       </c>
@@ -8920,7 +9509,7 @@
       </c>
       <c r="J21" s="44"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="144" customHeight="1" spans="1:10">
+    <row r="22" spans="1:14" s="2" customFormat="1" ht="144" customHeight="1">
       <c r="A22" s="15">
         <v>20</v>
       </c>
@@ -8950,7 +9539,7 @@
       </c>
       <c r="J22" s="44"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="168" customHeight="1" spans="1:10">
+    <row r="23" spans="1:14" s="2" customFormat="1" ht="168" customHeight="1">
       <c r="A23" s="15">
         <v>21</v>
       </c>
@@ -8980,7 +9569,7 @@
       </c>
       <c r="J23" s="44"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="197.25" customHeight="1" spans="1:14">
+    <row r="24" spans="1:14" s="3" customFormat="1" ht="197.25" customHeight="1">
       <c r="A24" s="35">
         <v>23</v>
       </c>
@@ -9014,7 +9603,7 @@
       <c r="M24" s="52"/>
       <c r="N24" s="52"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="104.25" customHeight="1" spans="1:14">
+    <row r="25" spans="1:14" s="3" customFormat="1" ht="104.25" customHeight="1">
       <c r="A25" s="39">
         <v>24</v>
       </c>
@@ -9048,7 +9637,7 @@
       <c r="M25" s="52"/>
       <c r="N25" s="52"/>
     </row>
-    <row r="26" s="3" customFormat="1" ht="104.25" customHeight="1" spans="1:14">
+    <row r="26" spans="1:14" s="3" customFormat="1" ht="104.25" customHeight="1">
       <c r="A26" s="39">
         <v>24</v>
       </c>
@@ -9082,7 +9671,7 @@
       <c r="M26" s="52"/>
       <c r="N26" s="52"/>
     </row>
-    <row r="27" s="4" customFormat="1" ht="67.5" customHeight="1" spans="1:14">
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="67.5" customHeight="1">
       <c r="A27" s="39">
         <v>25</v>
       </c>
@@ -9114,1105 +9703,1105 @@
       <c r="M27" s="52"/>
       <c r="N27" s="52"/>
     </row>
-    <row r="28" s="5" customFormat="1" spans="1:10">
+    <row r="28" spans="1:14" s="5" customFormat="1">
       <c r="A28" s="40"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="J28" s="54"/>
     </row>
-    <row r="29" s="5" customFormat="1" spans="1:10">
+    <row r="29" spans="1:14" s="5" customFormat="1">
       <c r="A29" s="40"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="J29" s="54"/>
     </row>
-    <row r="30" s="5" customFormat="1" spans="1:10">
+    <row r="30" spans="1:14" s="5" customFormat="1">
       <c r="A30" s="40"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="J30" s="54"/>
     </row>
-    <row r="31" s="5" customFormat="1" spans="1:10">
+    <row r="31" spans="1:14" s="5" customFormat="1">
       <c r="A31" s="40"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="J31" s="54"/>
     </row>
-    <row r="32" s="5" customFormat="1" spans="1:10">
+    <row r="32" spans="1:14" s="5" customFormat="1">
       <c r="A32" s="40"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="J32" s="54"/>
     </row>
-    <row r="33" s="5" customFormat="1" spans="1:10">
+    <row r="33" spans="1:10" s="5" customFormat="1">
       <c r="A33" s="40"/>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
       <c r="J33" s="54"/>
     </row>
-    <row r="34" s="5" customFormat="1" spans="1:10">
+    <row r="34" spans="1:10" s="5" customFormat="1">
       <c r="A34" s="40"/>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
       <c r="J34" s="54"/>
     </row>
-    <row r="35" s="5" customFormat="1" spans="1:10">
+    <row r="35" spans="1:10" s="5" customFormat="1">
       <c r="A35" s="40"/>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
       <c r="J35" s="54"/>
     </row>
-    <row r="36" s="5" customFormat="1" spans="1:10">
+    <row r="36" spans="1:10" s="5" customFormat="1">
       <c r="A36" s="40"/>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="J36" s="54"/>
     </row>
-    <row r="37" s="5" customFormat="1" spans="1:10">
+    <row r="37" spans="1:10" s="5" customFormat="1">
       <c r="A37" s="40"/>
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
       <c r="J37" s="54"/>
     </row>
-    <row r="38" s="5" customFormat="1" spans="1:10">
+    <row r="38" spans="1:10" s="5" customFormat="1">
       <c r="A38" s="40"/>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
       <c r="J38" s="54"/>
     </row>
-    <row r="39" s="5" customFormat="1" spans="1:10">
+    <row r="39" spans="1:10" s="5" customFormat="1">
       <c r="A39" s="40"/>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
       <c r="J39" s="54"/>
     </row>
-    <row r="40" s="5" customFormat="1" spans="1:10">
+    <row r="40" spans="1:10" s="5" customFormat="1">
       <c r="A40" s="40"/>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
       <c r="J40" s="54"/>
     </row>
-    <row r="41" s="5" customFormat="1" spans="1:10">
+    <row r="41" spans="1:10" s="5" customFormat="1">
       <c r="A41" s="40"/>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
       <c r="J41" s="54"/>
     </row>
-    <row r="42" s="5" customFormat="1" spans="1:10">
+    <row r="42" spans="1:10" s="5" customFormat="1">
       <c r="A42" s="40"/>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
       <c r="J42" s="54"/>
     </row>
-    <row r="43" s="5" customFormat="1" spans="1:10">
+    <row r="43" spans="1:10" s="5" customFormat="1">
       <c r="A43" s="40"/>
       <c r="D43" s="41"/>
       <c r="E43" s="41"/>
       <c r="J43" s="54"/>
     </row>
-    <row r="44" s="5" customFormat="1" spans="1:10">
+    <row r="44" spans="1:10" s="5" customFormat="1">
       <c r="A44" s="40"/>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
       <c r="J44" s="54"/>
     </row>
-    <row r="45" s="5" customFormat="1" spans="1:10">
+    <row r="45" spans="1:10" s="5" customFormat="1">
       <c r="A45" s="40"/>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="J45" s="54"/>
     </row>
-    <row r="46" s="5" customFormat="1" spans="1:10">
+    <row r="46" spans="1:10" s="5" customFormat="1">
       <c r="A46" s="40"/>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="J46" s="54"/>
     </row>
-    <row r="47" s="5" customFormat="1" spans="1:10">
+    <row r="47" spans="1:10" s="5" customFormat="1">
       <c r="A47" s="40"/>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
       <c r="J47" s="54"/>
     </row>
-    <row r="48" s="5" customFormat="1" spans="1:10">
+    <row r="48" spans="1:10" s="5" customFormat="1">
       <c r="A48" s="40"/>
       <c r="D48" s="41"/>
       <c r="E48" s="41"/>
       <c r="J48" s="54"/>
     </row>
-    <row r="49" s="5" customFormat="1" spans="1:10">
+    <row r="49" spans="1:10" s="5" customFormat="1">
       <c r="A49" s="40"/>
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
       <c r="J49" s="54"/>
     </row>
-    <row r="50" s="5" customFormat="1" spans="1:10">
+    <row r="50" spans="1:10" s="5" customFormat="1">
       <c r="A50" s="40"/>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
       <c r="J50" s="54"/>
     </row>
-    <row r="51" s="5" customFormat="1" spans="1:10">
+    <row r="51" spans="1:10" s="5" customFormat="1">
       <c r="A51" s="40"/>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
       <c r="J51" s="54"/>
     </row>
-    <row r="52" s="5" customFormat="1" spans="1:10">
+    <row r="52" spans="1:10" s="5" customFormat="1">
       <c r="A52" s="40"/>
       <c r="D52" s="41"/>
       <c r="E52" s="41"/>
       <c r="J52" s="54"/>
     </row>
-    <row r="53" s="5" customFormat="1" spans="1:10">
+    <row r="53" spans="1:10" s="5" customFormat="1">
       <c r="A53" s="40"/>
       <c r="D53" s="41"/>
       <c r="E53" s="41"/>
       <c r="J53" s="54"/>
     </row>
-    <row r="54" s="5" customFormat="1" spans="1:10">
+    <row r="54" spans="1:10" s="5" customFormat="1">
       <c r="A54" s="40"/>
       <c r="D54" s="41"/>
       <c r="E54" s="41"/>
       <c r="J54" s="54"/>
     </row>
-    <row r="55" s="5" customFormat="1" spans="1:10">
+    <row r="55" spans="1:10" s="5" customFormat="1">
       <c r="A55" s="40"/>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
       <c r="J55" s="54"/>
     </row>
-    <row r="56" s="5" customFormat="1" spans="1:10">
+    <row r="56" spans="1:10" s="5" customFormat="1">
       <c r="A56" s="40"/>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
       <c r="J56" s="54"/>
     </row>
-    <row r="57" s="5" customFormat="1" spans="1:10">
+    <row r="57" spans="1:10" s="5" customFormat="1">
       <c r="A57" s="40"/>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
       <c r="J57" s="54"/>
     </row>
-    <row r="58" s="5" customFormat="1" spans="1:10">
+    <row r="58" spans="1:10" s="5" customFormat="1">
       <c r="A58" s="40"/>
       <c r="D58" s="41"/>
       <c r="E58" s="41"/>
       <c r="J58" s="54"/>
     </row>
-    <row r="59" s="5" customFormat="1" spans="1:10">
+    <row r="59" spans="1:10" s="5" customFormat="1">
       <c r="A59" s="40"/>
       <c r="D59" s="41"/>
       <c r="E59" s="41"/>
       <c r="J59" s="54"/>
     </row>
-    <row r="60" s="5" customFormat="1" spans="1:10">
+    <row r="60" spans="1:10" s="5" customFormat="1">
       <c r="A60" s="40"/>
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
       <c r="J60" s="54"/>
     </row>
-    <row r="61" s="5" customFormat="1" spans="1:10">
+    <row r="61" spans="1:10" s="5" customFormat="1">
       <c r="A61" s="40"/>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
       <c r="J61" s="54"/>
     </row>
-    <row r="62" s="5" customFormat="1" spans="1:10">
+    <row r="62" spans="1:10" s="5" customFormat="1">
       <c r="A62" s="40"/>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
       <c r="J62" s="54"/>
     </row>
-    <row r="63" s="5" customFormat="1" spans="1:10">
+    <row r="63" spans="1:10" s="5" customFormat="1">
       <c r="A63" s="40"/>
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
       <c r="J63" s="54"/>
     </row>
-    <row r="64" s="5" customFormat="1" spans="1:10">
+    <row r="64" spans="1:10" s="5" customFormat="1">
       <c r="A64" s="40"/>
       <c r="D64" s="41"/>
       <c r="E64" s="41"/>
       <c r="J64" s="54"/>
     </row>
-    <row r="65" s="5" customFormat="1" spans="1:10">
+    <row r="65" spans="1:10" s="5" customFormat="1">
       <c r="A65" s="40"/>
       <c r="D65" s="41"/>
       <c r="E65" s="41"/>
       <c r="J65" s="54"/>
     </row>
-    <row r="66" s="5" customFormat="1" spans="1:10">
+    <row r="66" spans="1:10" s="5" customFormat="1">
       <c r="A66" s="40"/>
       <c r="D66" s="41"/>
       <c r="E66" s="41"/>
       <c r="J66" s="54"/>
     </row>
-    <row r="67" s="5" customFormat="1" spans="1:10">
+    <row r="67" spans="1:10" s="5" customFormat="1">
       <c r="A67" s="40"/>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
       <c r="J67" s="54"/>
     </row>
-    <row r="68" s="5" customFormat="1" spans="1:10">
+    <row r="68" spans="1:10" s="5" customFormat="1">
       <c r="A68" s="40"/>
       <c r="D68" s="41"/>
       <c r="E68" s="41"/>
       <c r="J68" s="54"/>
     </row>
-    <row r="69" s="5" customFormat="1" spans="1:10">
+    <row r="69" spans="1:10" s="5" customFormat="1">
       <c r="A69" s="40"/>
       <c r="D69" s="41"/>
       <c r="E69" s="41"/>
       <c r="J69" s="54"/>
     </row>
-    <row r="70" s="5" customFormat="1" spans="1:10">
+    <row r="70" spans="1:10" s="5" customFormat="1">
       <c r="A70" s="40"/>
       <c r="D70" s="41"/>
       <c r="E70" s="41"/>
       <c r="J70" s="54"/>
     </row>
-    <row r="71" s="5" customFormat="1" spans="1:10">
+    <row r="71" spans="1:10" s="5" customFormat="1">
       <c r="A71" s="40"/>
       <c r="D71" s="41"/>
       <c r="E71" s="41"/>
       <c r="J71" s="54"/>
     </row>
-    <row r="72" s="5" customFormat="1" spans="1:10">
+    <row r="72" spans="1:10" s="5" customFormat="1">
       <c r="A72" s="40"/>
       <c r="D72" s="41"/>
       <c r="E72" s="41"/>
       <c r="J72" s="54"/>
     </row>
-    <row r="73" s="5" customFormat="1" spans="1:10">
+    <row r="73" spans="1:10" s="5" customFormat="1">
       <c r="A73" s="40"/>
       <c r="D73" s="41"/>
       <c r="E73" s="41"/>
       <c r="J73" s="54"/>
     </row>
-    <row r="74" s="5" customFormat="1" spans="1:10">
+    <row r="74" spans="1:10" s="5" customFormat="1">
       <c r="A74" s="40"/>
       <c r="D74" s="41"/>
       <c r="E74" s="41"/>
       <c r="J74" s="54"/>
     </row>
-    <row r="75" s="5" customFormat="1" spans="1:10">
+    <row r="75" spans="1:10" s="5" customFormat="1">
       <c r="A75" s="40"/>
       <c r="D75" s="41"/>
       <c r="E75" s="41"/>
       <c r="J75" s="54"/>
     </row>
-    <row r="76" s="5" customFormat="1" spans="1:10">
+    <row r="76" spans="1:10" s="5" customFormat="1">
       <c r="A76" s="40"/>
       <c r="D76" s="41"/>
       <c r="E76" s="41"/>
       <c r="J76" s="54"/>
     </row>
-    <row r="77" s="5" customFormat="1" spans="1:10">
+    <row r="77" spans="1:10" s="5" customFormat="1">
       <c r="A77" s="40"/>
       <c r="D77" s="41"/>
       <c r="E77" s="41"/>
       <c r="J77" s="54"/>
     </row>
-    <row r="78" s="5" customFormat="1" spans="1:10">
+    <row r="78" spans="1:10" s="5" customFormat="1">
       <c r="A78" s="40"/>
       <c r="D78" s="41"/>
       <c r="E78" s="41"/>
       <c r="J78" s="54"/>
     </row>
-    <row r="79" s="5" customFormat="1" spans="1:10">
+    <row r="79" spans="1:10" s="5" customFormat="1">
       <c r="A79" s="40"/>
       <c r="D79" s="41"/>
       <c r="E79" s="41"/>
       <c r="J79" s="54"/>
     </row>
-    <row r="80" s="5" customFormat="1" spans="1:10">
+    <row r="80" spans="1:10" s="5" customFormat="1">
       <c r="A80" s="40"/>
       <c r="D80" s="41"/>
       <c r="E80" s="41"/>
       <c r="J80" s="54"/>
     </row>
-    <row r="81" s="5" customFormat="1" spans="1:10">
+    <row r="81" spans="1:10" s="5" customFormat="1">
       <c r="A81" s="40"/>
       <c r="D81" s="41"/>
       <c r="E81" s="41"/>
       <c r="J81" s="54"/>
     </row>
-    <row r="82" s="5" customFormat="1" spans="1:10">
+    <row r="82" spans="1:10" s="5" customFormat="1">
       <c r="A82" s="40"/>
       <c r="D82" s="41"/>
       <c r="E82" s="41"/>
       <c r="J82" s="54"/>
     </row>
-    <row r="83" s="5" customFormat="1" spans="1:10">
+    <row r="83" spans="1:10" s="5" customFormat="1">
       <c r="A83" s="40"/>
       <c r="D83" s="41"/>
       <c r="E83" s="41"/>
       <c r="J83" s="54"/>
     </row>
-    <row r="84" s="5" customFormat="1" spans="1:10">
+    <row r="84" spans="1:10" s="5" customFormat="1">
       <c r="A84" s="40"/>
       <c r="D84" s="41"/>
       <c r="E84" s="41"/>
       <c r="J84" s="54"/>
     </row>
-    <row r="85" s="5" customFormat="1" spans="1:10">
+    <row r="85" spans="1:10" s="5" customFormat="1">
       <c r="A85" s="40"/>
       <c r="D85" s="41"/>
       <c r="E85" s="41"/>
       <c r="J85" s="54"/>
     </row>
-    <row r="86" s="5" customFormat="1" spans="1:10">
+    <row r="86" spans="1:10" s="5" customFormat="1">
       <c r="A86" s="40"/>
       <c r="D86" s="41"/>
       <c r="E86" s="41"/>
       <c r="J86" s="54"/>
     </row>
-    <row r="87" s="5" customFormat="1" spans="1:10">
+    <row r="87" spans="1:10" s="5" customFormat="1">
       <c r="A87" s="40"/>
       <c r="D87" s="41"/>
       <c r="E87" s="41"/>
       <c r="J87" s="54"/>
     </row>
-    <row r="88" s="5" customFormat="1" spans="1:10">
+    <row r="88" spans="1:10" s="5" customFormat="1">
       <c r="A88" s="40"/>
       <c r="D88" s="41"/>
       <c r="E88" s="41"/>
       <c r="J88" s="54"/>
     </row>
-    <row r="89" s="5" customFormat="1" spans="1:10">
+    <row r="89" spans="1:10" s="5" customFormat="1">
       <c r="A89" s="40"/>
       <c r="D89" s="41"/>
       <c r="E89" s="41"/>
       <c r="J89" s="54"/>
     </row>
-    <row r="90" s="5" customFormat="1" spans="1:10">
+    <row r="90" spans="1:10" s="5" customFormat="1">
       <c r="A90" s="40"/>
       <c r="D90" s="41"/>
       <c r="E90" s="41"/>
       <c r="J90" s="54"/>
     </row>
-    <row r="91" s="5" customFormat="1" spans="1:10">
+    <row r="91" spans="1:10" s="5" customFormat="1">
       <c r="A91" s="40"/>
       <c r="D91" s="41"/>
       <c r="E91" s="41"/>
       <c r="J91" s="54"/>
     </row>
-    <row r="92" s="5" customFormat="1" spans="1:10">
+    <row r="92" spans="1:10" s="5" customFormat="1">
       <c r="A92" s="40"/>
       <c r="D92" s="41"/>
       <c r="E92" s="41"/>
       <c r="J92" s="54"/>
     </row>
-    <row r="93" s="5" customFormat="1" spans="1:10">
+    <row r="93" spans="1:10" s="5" customFormat="1">
       <c r="A93" s="40"/>
       <c r="D93" s="41"/>
       <c r="E93" s="41"/>
       <c r="J93" s="54"/>
     </row>
-    <row r="94" s="5" customFormat="1" spans="1:10">
+    <row r="94" spans="1:10" s="5" customFormat="1">
       <c r="A94" s="40"/>
       <c r="D94" s="41"/>
       <c r="E94" s="41"/>
       <c r="J94" s="54"/>
     </row>
-    <row r="95" s="5" customFormat="1" spans="1:10">
+    <row r="95" spans="1:10" s="5" customFormat="1">
       <c r="A95" s="40"/>
       <c r="D95" s="41"/>
       <c r="E95" s="41"/>
       <c r="J95" s="54"/>
     </row>
-    <row r="96" s="5" customFormat="1" spans="1:10">
+    <row r="96" spans="1:10" s="5" customFormat="1">
       <c r="A96" s="40"/>
       <c r="D96" s="41"/>
       <c r="E96" s="41"/>
       <c r="J96" s="54"/>
     </row>
-    <row r="97" s="5" customFormat="1" spans="1:10">
+    <row r="97" spans="1:10" s="5" customFormat="1">
       <c r="A97" s="40"/>
       <c r="D97" s="41"/>
       <c r="E97" s="41"/>
       <c r="J97" s="54"/>
     </row>
-    <row r="98" s="5" customFormat="1" spans="1:10">
+    <row r="98" spans="1:10" s="5" customFormat="1">
       <c r="A98" s="40"/>
       <c r="D98" s="41"/>
       <c r="E98" s="41"/>
       <c r="J98" s="54"/>
     </row>
-    <row r="99" s="5" customFormat="1" spans="1:10">
+    <row r="99" spans="1:10" s="5" customFormat="1">
       <c r="A99" s="40"/>
       <c r="D99" s="41"/>
       <c r="E99" s="41"/>
       <c r="J99" s="54"/>
     </row>
-    <row r="100" s="5" customFormat="1" spans="1:10">
+    <row r="100" spans="1:10" s="5" customFormat="1">
       <c r="A100" s="40"/>
       <c r="D100" s="41"/>
       <c r="E100" s="41"/>
       <c r="J100" s="54"/>
     </row>
-    <row r="101" s="5" customFormat="1" spans="1:10">
+    <row r="101" spans="1:10" s="5" customFormat="1">
       <c r="A101" s="40"/>
       <c r="D101" s="41"/>
       <c r="E101" s="41"/>
       <c r="J101" s="54"/>
     </row>
-    <row r="102" s="5" customFormat="1" spans="1:10">
+    <row r="102" spans="1:10" s="5" customFormat="1">
       <c r="A102" s="40"/>
       <c r="D102" s="41"/>
       <c r="E102" s="41"/>
       <c r="J102" s="54"/>
     </row>
-    <row r="103" s="5" customFormat="1" spans="1:10">
+    <row r="103" spans="1:10" s="5" customFormat="1">
       <c r="A103" s="40"/>
       <c r="D103" s="41"/>
       <c r="E103" s="41"/>
       <c r="J103" s="54"/>
     </row>
-    <row r="104" s="5" customFormat="1" spans="1:10">
+    <row r="104" spans="1:10" s="5" customFormat="1">
       <c r="A104" s="40"/>
       <c r="D104" s="41"/>
       <c r="E104" s="41"/>
       <c r="J104" s="54"/>
     </row>
-    <row r="105" s="5" customFormat="1" spans="1:10">
+    <row r="105" spans="1:10" s="5" customFormat="1">
       <c r="A105" s="40"/>
       <c r="D105" s="41"/>
       <c r="E105" s="41"/>
       <c r="J105" s="54"/>
     </row>
-    <row r="106" s="5" customFormat="1" spans="1:10">
+    <row r="106" spans="1:10" s="5" customFormat="1">
       <c r="A106" s="40"/>
       <c r="D106" s="41"/>
       <c r="E106" s="41"/>
       <c r="J106" s="54"/>
     </row>
-    <row r="107" s="5" customFormat="1" spans="1:10">
+    <row r="107" spans="1:10" s="5" customFormat="1">
       <c r="A107" s="40"/>
       <c r="D107" s="41"/>
       <c r="E107" s="41"/>
       <c r="J107" s="54"/>
     </row>
-    <row r="108" s="5" customFormat="1" spans="1:10">
+    <row r="108" spans="1:10" s="5" customFormat="1">
       <c r="A108" s="40"/>
       <c r="D108" s="41"/>
       <c r="E108" s="41"/>
       <c r="J108" s="54"/>
     </row>
-    <row r="109" s="5" customFormat="1" spans="1:10">
+    <row r="109" spans="1:10" s="5" customFormat="1">
       <c r="A109" s="40"/>
       <c r="D109" s="41"/>
       <c r="E109" s="41"/>
       <c r="J109" s="54"/>
     </row>
-    <row r="110" s="5" customFormat="1" spans="1:10">
+    <row r="110" spans="1:10" s="5" customFormat="1">
       <c r="A110" s="40"/>
       <c r="D110" s="41"/>
       <c r="E110" s="41"/>
       <c r="J110" s="54"/>
     </row>
-    <row r="111" s="5" customFormat="1" spans="1:10">
+    <row r="111" spans="1:10" s="5" customFormat="1">
       <c r="A111" s="40"/>
       <c r="D111" s="41"/>
       <c r="E111" s="41"/>
       <c r="J111" s="54"/>
     </row>
-    <row r="112" s="5" customFormat="1" spans="1:10">
+    <row r="112" spans="1:10" s="5" customFormat="1">
       <c r="A112" s="40"/>
       <c r="D112" s="41"/>
       <c r="E112" s="41"/>
       <c r="J112" s="54"/>
     </row>
-    <row r="113" s="5" customFormat="1" spans="1:10">
+    <row r="113" spans="1:10" s="5" customFormat="1">
       <c r="A113" s="40"/>
       <c r="D113" s="41"/>
       <c r="E113" s="41"/>
       <c r="J113" s="54"/>
     </row>
-    <row r="114" s="5" customFormat="1" spans="1:10">
+    <row r="114" spans="1:10" s="5" customFormat="1">
       <c r="A114" s="40"/>
       <c r="D114" s="41"/>
       <c r="E114" s="41"/>
       <c r="J114" s="54"/>
     </row>
-    <row r="115" s="5" customFormat="1" spans="1:10">
+    <row r="115" spans="1:10" s="5" customFormat="1">
       <c r="A115" s="40"/>
       <c r="D115" s="41"/>
       <c r="E115" s="41"/>
       <c r="J115" s="54"/>
     </row>
-    <row r="116" s="5" customFormat="1" spans="1:10">
+    <row r="116" spans="1:10" s="5" customFormat="1">
       <c r="A116" s="40"/>
       <c r="D116" s="41"/>
       <c r="E116" s="41"/>
       <c r="J116" s="54"/>
     </row>
-    <row r="117" s="5" customFormat="1" spans="1:10">
+    <row r="117" spans="1:10" s="5" customFormat="1">
       <c r="A117" s="40"/>
       <c r="D117" s="41"/>
       <c r="E117" s="41"/>
       <c r="J117" s="54"/>
     </row>
-    <row r="118" s="5" customFormat="1" spans="1:10">
+    <row r="118" spans="1:10" s="5" customFormat="1">
       <c r="A118" s="40"/>
       <c r="D118" s="41"/>
       <c r="E118" s="41"/>
       <c r="J118" s="54"/>
     </row>
-    <row r="119" s="5" customFormat="1" spans="1:10">
+    <row r="119" spans="1:10" s="5" customFormat="1">
       <c r="A119" s="40"/>
       <c r="D119" s="41"/>
       <c r="E119" s="41"/>
       <c r="J119" s="54"/>
     </row>
-    <row r="120" s="5" customFormat="1" spans="1:10">
+    <row r="120" spans="1:10" s="5" customFormat="1">
       <c r="A120" s="40"/>
       <c r="D120" s="41"/>
       <c r="E120" s="41"/>
       <c r="J120" s="54"/>
     </row>
-    <row r="121" s="5" customFormat="1" spans="1:10">
+    <row r="121" spans="1:10" s="5" customFormat="1">
       <c r="A121" s="40"/>
       <c r="D121" s="41"/>
       <c r="E121" s="41"/>
       <c r="J121" s="54"/>
     </row>
-    <row r="122" s="5" customFormat="1" spans="1:10">
+    <row r="122" spans="1:10" s="5" customFormat="1">
       <c r="A122" s="40"/>
       <c r="D122" s="41"/>
       <c r="E122" s="41"/>
       <c r="J122" s="54"/>
     </row>
-    <row r="123" s="5" customFormat="1" spans="1:10">
+    <row r="123" spans="1:10" s="5" customFormat="1">
       <c r="A123" s="40"/>
       <c r="D123" s="41"/>
       <c r="E123" s="41"/>
       <c r="J123" s="54"/>
     </row>
-    <row r="124" s="5" customFormat="1" spans="1:10">
+    <row r="124" spans="1:10" s="5" customFormat="1">
       <c r="A124" s="40"/>
       <c r="D124" s="41"/>
       <c r="E124" s="41"/>
       <c r="J124" s="54"/>
     </row>
-    <row r="125" s="5" customFormat="1" spans="1:10">
+    <row r="125" spans="1:10" s="5" customFormat="1">
       <c r="A125" s="40"/>
       <c r="D125" s="41"/>
       <c r="E125" s="41"/>
       <c r="J125" s="54"/>
     </row>
-    <row r="126" s="5" customFormat="1" spans="1:10">
+    <row r="126" spans="1:10" s="5" customFormat="1">
       <c r="A126" s="40"/>
       <c r="D126" s="41"/>
       <c r="E126" s="41"/>
       <c r="J126" s="54"/>
     </row>
-    <row r="127" s="5" customFormat="1" spans="1:10">
+    <row r="127" spans="1:10" s="5" customFormat="1">
       <c r="A127" s="40"/>
       <c r="D127" s="41"/>
       <c r="E127" s="41"/>
       <c r="J127" s="54"/>
     </row>
-    <row r="128" s="5" customFormat="1" spans="1:10">
+    <row r="128" spans="1:10" s="5" customFormat="1">
       <c r="A128" s="40"/>
       <c r="D128" s="41"/>
       <c r="E128" s="41"/>
       <c r="J128" s="54"/>
     </row>
-    <row r="129" s="5" customFormat="1" spans="1:10">
+    <row r="129" spans="1:10" s="5" customFormat="1">
       <c r="A129" s="40"/>
       <c r="D129" s="41"/>
       <c r="E129" s="41"/>
       <c r="J129" s="54"/>
     </row>
-    <row r="130" s="5" customFormat="1" spans="1:10">
+    <row r="130" spans="1:10" s="5" customFormat="1">
       <c r="A130" s="40"/>
       <c r="D130" s="41"/>
       <c r="E130" s="41"/>
       <c r="J130" s="54"/>
     </row>
-    <row r="131" s="5" customFormat="1" spans="1:10">
+    <row r="131" spans="1:10" s="5" customFormat="1">
       <c r="A131" s="40"/>
       <c r="D131" s="41"/>
       <c r="E131" s="41"/>
       <c r="J131" s="54"/>
     </row>
-    <row r="132" s="5" customFormat="1" spans="1:10">
+    <row r="132" spans="1:10" s="5" customFormat="1">
       <c r="A132" s="40"/>
       <c r="D132" s="41"/>
       <c r="E132" s="41"/>
       <c r="J132" s="54"/>
     </row>
-    <row r="133" s="5" customFormat="1" spans="1:10">
+    <row r="133" spans="1:10" s="5" customFormat="1">
       <c r="A133" s="40"/>
       <c r="D133" s="41"/>
       <c r="E133" s="41"/>
       <c r="J133" s="54"/>
     </row>
-    <row r="134" s="5" customFormat="1" spans="1:10">
+    <row r="134" spans="1:10" s="5" customFormat="1">
       <c r="A134" s="40"/>
       <c r="D134" s="41"/>
       <c r="E134" s="41"/>
       <c r="J134" s="54"/>
     </row>
-    <row r="135" s="5" customFormat="1" spans="1:10">
+    <row r="135" spans="1:10" s="5" customFormat="1">
       <c r="A135" s="40"/>
       <c r="D135" s="41"/>
       <c r="E135" s="41"/>
       <c r="J135" s="54"/>
     </row>
-    <row r="136" s="5" customFormat="1" spans="1:10">
+    <row r="136" spans="1:10" s="5" customFormat="1">
       <c r="A136" s="40"/>
       <c r="D136" s="41"/>
       <c r="E136" s="41"/>
       <c r="J136" s="54"/>
     </row>
-    <row r="137" s="5" customFormat="1" spans="1:10">
+    <row r="137" spans="1:10" s="5" customFormat="1">
       <c r="A137" s="40"/>
       <c r="D137" s="41"/>
       <c r="E137" s="41"/>
       <c r="J137" s="54"/>
     </row>
-    <row r="138" s="5" customFormat="1" spans="1:10">
+    <row r="138" spans="1:10" s="5" customFormat="1">
       <c r="A138" s="40"/>
       <c r="D138" s="41"/>
       <c r="E138" s="41"/>
       <c r="J138" s="54"/>
     </row>
-    <row r="139" s="5" customFormat="1" spans="1:10">
+    <row r="139" spans="1:10" s="5" customFormat="1">
       <c r="A139" s="40"/>
       <c r="D139" s="41"/>
       <c r="E139" s="41"/>
       <c r="J139" s="54"/>
     </row>
-    <row r="140" s="5" customFormat="1" spans="1:10">
+    <row r="140" spans="1:10" s="5" customFormat="1">
       <c r="A140" s="40"/>
       <c r="D140" s="41"/>
       <c r="E140" s="41"/>
       <c r="J140" s="54"/>
     </row>
-    <row r="141" s="5" customFormat="1" spans="1:10">
+    <row r="141" spans="1:10" s="5" customFormat="1">
       <c r="A141" s="40"/>
       <c r="D141" s="41"/>
       <c r="E141" s="41"/>
       <c r="J141" s="54"/>
     </row>
-    <row r="142" s="5" customFormat="1" spans="1:10">
+    <row r="142" spans="1:10" s="5" customFormat="1">
       <c r="A142" s="40"/>
       <c r="D142" s="41"/>
       <c r="E142" s="41"/>
       <c r="J142" s="54"/>
     </row>
-    <row r="143" s="5" customFormat="1" spans="1:10">
+    <row r="143" spans="1:10" s="5" customFormat="1">
       <c r="A143" s="40"/>
       <c r="D143" s="41"/>
       <c r="E143" s="41"/>
       <c r="J143" s="54"/>
     </row>
-    <row r="144" s="5" customFormat="1" spans="1:10">
+    <row r="144" spans="1:10" s="5" customFormat="1">
       <c r="A144" s="40"/>
       <c r="D144" s="41"/>
       <c r="E144" s="41"/>
       <c r="J144" s="54"/>
     </row>
-    <row r="145" s="5" customFormat="1" spans="1:10">
+    <row r="145" spans="1:10" s="5" customFormat="1">
       <c r="A145" s="40"/>
       <c r="D145" s="41"/>
       <c r="E145" s="41"/>
       <c r="J145" s="54"/>
     </row>
-    <row r="146" s="5" customFormat="1" spans="1:10">
+    <row r="146" spans="1:10" s="5" customFormat="1">
       <c r="A146" s="40"/>
       <c r="D146" s="41"/>
       <c r="E146" s="41"/>
       <c r="J146" s="54"/>
     </row>
-    <row r="147" s="5" customFormat="1" spans="1:10">
+    <row r="147" spans="1:10" s="5" customFormat="1">
       <c r="A147" s="40"/>
       <c r="D147" s="41"/>
       <c r="E147" s="41"/>
       <c r="J147" s="54"/>
     </row>
-    <row r="148" s="5" customFormat="1" spans="1:10">
+    <row r="148" spans="1:10" s="5" customFormat="1">
       <c r="A148" s="40"/>
       <c r="D148" s="41"/>
       <c r="E148" s="41"/>
       <c r="J148" s="54"/>
     </row>
-    <row r="149" s="5" customFormat="1" spans="1:10">
+    <row r="149" spans="1:10" s="5" customFormat="1">
       <c r="A149" s="40"/>
       <c r="D149" s="41"/>
       <c r="E149" s="41"/>
       <c r="J149" s="54"/>
     </row>
-    <row r="150" s="5" customFormat="1" spans="1:10">
+    <row r="150" spans="1:10" s="5" customFormat="1">
       <c r="A150" s="40"/>
       <c r="D150" s="41"/>
       <c r="E150" s="41"/>
       <c r="J150" s="54"/>
     </row>
-    <row r="151" s="5" customFormat="1" spans="1:10">
+    <row r="151" spans="1:10" s="5" customFormat="1">
       <c r="A151" s="40"/>
       <c r="D151" s="41"/>
       <c r="E151" s="41"/>
       <c r="J151" s="54"/>
     </row>
-    <row r="152" s="5" customFormat="1" spans="1:10">
+    <row r="152" spans="1:10" s="5" customFormat="1">
       <c r="A152" s="40"/>
       <c r="D152" s="41"/>
       <c r="E152" s="41"/>
       <c r="J152" s="54"/>
     </row>
-    <row r="153" s="5" customFormat="1" spans="1:10">
+    <row r="153" spans="1:10" s="5" customFormat="1">
       <c r="A153" s="40"/>
       <c r="D153" s="41"/>
       <c r="E153" s="41"/>
       <c r="J153" s="54"/>
     </row>
-    <row r="154" s="5" customFormat="1" spans="1:10">
+    <row r="154" spans="1:10" s="5" customFormat="1">
       <c r="A154" s="40"/>
       <c r="D154" s="41"/>
       <c r="E154" s="41"/>
       <c r="J154" s="54"/>
     </row>
-    <row r="155" s="5" customFormat="1" spans="1:10">
+    <row r="155" spans="1:10" s="5" customFormat="1">
       <c r="A155" s="40"/>
       <c r="D155" s="41"/>
       <c r="E155" s="41"/>
       <c r="J155" s="54"/>
     </row>
-    <row r="156" s="5" customFormat="1" spans="1:10">
+    <row r="156" spans="1:10" s="5" customFormat="1">
       <c r="A156" s="40"/>
       <c r="D156" s="41"/>
       <c r="E156" s="41"/>
       <c r="J156" s="54"/>
     </row>
-    <row r="157" s="5" customFormat="1" spans="1:10">
+    <row r="157" spans="1:10" s="5" customFormat="1">
       <c r="A157" s="40"/>
       <c r="D157" s="41"/>
       <c r="E157" s="41"/>
       <c r="J157" s="54"/>
     </row>
-    <row r="158" s="5" customFormat="1" spans="1:10">
+    <row r="158" spans="1:10" s="5" customFormat="1">
       <c r="A158" s="40"/>
       <c r="D158" s="41"/>
       <c r="E158" s="41"/>
       <c r="J158" s="54"/>
     </row>
-    <row r="159" s="5" customFormat="1" spans="1:10">
+    <row r="159" spans="1:10" s="5" customFormat="1">
       <c r="A159" s="40"/>
       <c r="D159" s="41"/>
       <c r="E159" s="41"/>
       <c r="J159" s="54"/>
     </row>
-    <row r="160" s="5" customFormat="1" spans="1:10">
+    <row r="160" spans="1:10" s="5" customFormat="1">
       <c r="A160" s="40"/>
       <c r="D160" s="41"/>
       <c r="E160" s="41"/>
       <c r="J160" s="54"/>
     </row>
-    <row r="161" s="5" customFormat="1" spans="1:10">
+    <row r="161" spans="1:10" s="5" customFormat="1">
       <c r="A161" s="40"/>
       <c r="D161" s="41"/>
       <c r="E161" s="41"/>
       <c r="J161" s="54"/>
     </row>
-    <row r="162" s="5" customFormat="1" spans="1:10">
+    <row r="162" spans="1:10" s="5" customFormat="1">
       <c r="A162" s="40"/>
       <c r="D162" s="41"/>
       <c r="E162" s="41"/>
       <c r="J162" s="54"/>
     </row>
-    <row r="163" s="5" customFormat="1" spans="1:10">
+    <row r="163" spans="1:10" s="5" customFormat="1">
       <c r="A163" s="40"/>
       <c r="D163" s="41"/>
       <c r="E163" s="41"/>
       <c r="J163" s="54"/>
     </row>
-    <row r="164" s="5" customFormat="1" spans="1:10">
+    <row r="164" spans="1:10" s="5" customFormat="1">
       <c r="A164" s="40"/>
       <c r="D164" s="41"/>
       <c r="E164" s="41"/>
       <c r="J164" s="54"/>
     </row>
-    <row r="165" s="5" customFormat="1" spans="1:10">
+    <row r="165" spans="1:10" s="5" customFormat="1">
       <c r="A165" s="40"/>
       <c r="D165" s="41"/>
       <c r="E165" s="41"/>
       <c r="J165" s="54"/>
     </row>
-    <row r="166" s="5" customFormat="1" spans="1:10">
+    <row r="166" spans="1:10" s="5" customFormat="1">
       <c r="A166" s="40"/>
       <c r="D166" s="41"/>
       <c r="E166" s="41"/>
       <c r="J166" s="54"/>
     </row>
-    <row r="167" s="5" customFormat="1" spans="1:10">
+    <row r="167" spans="1:10" s="5" customFormat="1">
       <c r="A167" s="40"/>
       <c r="D167" s="41"/>
       <c r="E167" s="41"/>
       <c r="J167" s="54"/>
     </row>
-    <row r="168" s="5" customFormat="1" spans="1:10">
+    <row r="168" spans="1:10" s="5" customFormat="1">
       <c r="A168" s="40"/>
       <c r="D168" s="41"/>
       <c r="E168" s="41"/>
       <c r="J168" s="54"/>
     </row>
-    <row r="169" s="5" customFormat="1" spans="1:10">
+    <row r="169" spans="1:10" s="5" customFormat="1">
       <c r="A169" s="40"/>
       <c r="D169" s="41"/>
       <c r="E169" s="41"/>
       <c r="J169" s="54"/>
     </row>
-    <row r="170" s="5" customFormat="1" spans="1:10">
+    <row r="170" spans="1:10" s="5" customFormat="1">
       <c r="A170" s="40"/>
       <c r="D170" s="41"/>
       <c r="E170" s="41"/>
       <c r="J170" s="54"/>
     </row>
-    <row r="171" s="5" customFormat="1" spans="1:10">
+    <row r="171" spans="1:10" s="5" customFormat="1">
       <c r="A171" s="40"/>
       <c r="D171" s="41"/>
       <c r="E171" s="8"/>
       <c r="J171" s="54"/>
     </row>
-    <row r="172" spans="10:10">
+    <row r="172" spans="1:10">
       <c r="J172" s="54"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="10" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="cellIs" dxfId="1" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="63" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="1" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="1" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="cellIs" dxfId="1" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="cellIs" dxfId="1" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" dxfId="1" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="1" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="cellIs" dxfId="1" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="cellIs" dxfId="1" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="1" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="cellIs" dxfId="1" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="cellIs" dxfId="1" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109">
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111">
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B27">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B62">
-    <cfRule type="cellIs" dxfId="1" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="61" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="60" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B81">
-    <cfRule type="cellIs" dxfId="1" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="59" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="58" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B83">
-    <cfRule type="cellIs" dxfId="1" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="57" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="56" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98:B106">
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="29" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113:B150">
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151:B171">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84 B2:B3 B5:B23 B28:B39">
-    <cfRule type="cellIs" dxfId="1" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="65" operator="equal">
       <formula>"W1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3 B5:B6">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>"W2"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10229,9 +10818,8 @@
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>